--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BEC4C0-59B7-7C4B-BFF1-D649EAA8E949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5868442F-3CDC-A24F-AE8F-223CA6FC2F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="14420" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="268">
   <si>
     <t>Paper</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Not Available</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/8dd5/8913bd343f4ef23b8437b24e152d3270cdaf.pdf</t>
   </si>
   <si>
     <t>69 individuals (41 low-mild depression, 28 high depression); 5,706 tweets</t>
@@ -1211,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,18 +1469,21 @@
         <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1">
         <v>2013</v>
@@ -1486,24 +1492,24 @@
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>2014</v>
@@ -1512,27 +1518,27 @@
         <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1">
         <v>2015</v>
@@ -1541,27 +1547,27 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1">
         <v>2016</v>
@@ -1570,27 +1576,27 @@
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1">
         <v>2014</v>
@@ -1599,27 +1605,27 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1">
         <v>2015</v>
@@ -1628,7 +1634,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
@@ -1640,15 +1646,15 @@
         <v>17</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1">
         <v>2016</v>
@@ -1657,27 +1663,27 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1">
         <v>2017</v>
@@ -1698,128 +1704,128 @@
         <v>17</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1">
         <v>2016</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1">
         <v>2016</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1">
         <v>2017</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1">
         <v>2016</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1">
         <v>2015</v>
@@ -1828,27 +1834,27 @@
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C23" s="1">
         <v>2013</v>
@@ -1857,56 +1863,56 @@
         <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" s="1">
         <v>2018</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="1">
         <v>2017</v>
@@ -1915,85 +1921,85 @@
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C26" s="1">
         <v>2018</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27" s="1">
         <v>2015</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C28" s="1">
         <v>2017</v>
@@ -2014,273 +2020,273 @@
         <v>17</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C29" s="1">
         <v>2018</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C30" s="1">
         <v>2019</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" s="1">
         <v>2014</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C32" s="1">
         <v>2016</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C33" s="1">
         <v>2018</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C34" s="1">
         <v>2019</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="289" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C35" s="1">
         <v>2018</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C36" s="1">
         <v>2018</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C37" s="1">
         <v>2017</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C38" s="1">
         <v>2017</v>
@@ -2289,53 +2295,53 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C39" s="1">
         <v>2019</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C40" s="1">
         <v>2016</v>
@@ -2344,56 +2350,56 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C41" s="1">
         <v>2019</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C42" s="1">
         <v>2015</v>
@@ -2402,83 +2408,83 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C43" s="1">
         <v>2018</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C44" s="1">
         <v>2018</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5868442F-3CDC-A24F-AE8F-223CA6FC2F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD87C4E8-6E49-7343-B9EF-E9214E9106AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="14420" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="267">
   <si>
     <t>Paper</t>
   </si>
@@ -580,9 +580,6 @@
   </si>
   <si>
     <t>Pisani, Kanuri, Filbin, Gallo, Gould, Lehmann, Levine, Marcotte, Pascal, Rousseau, Turner, Yen, Ranney</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>https://www.jmir.org/2019/1/e11507/</t>
@@ -1214,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2066,10 +2063,10 @@
         <v>160</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>162</v>
@@ -2078,125 +2075,125 @@
         <v>163</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C31" s="1">
         <v>2014</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C32" s="1">
         <v>2016</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="C33" s="1">
         <v>2018</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="C34" s="1">
         <v>2019</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="289" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C35" s="1">
         <v>2018</v>
@@ -2208,53 +2205,53 @@
         <v>132</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C36" s="1">
         <v>2018</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>174</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="C37" s="1">
         <v>2017</v>
@@ -2266,27 +2263,27 @@
         <v>65</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="C38" s="1">
         <v>2017</v>
@@ -2295,24 +2292,24 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C39" s="1">
         <v>2019</v>
@@ -2324,24 +2321,24 @@
         <v>132</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="C40" s="1">
         <v>2016</v>
@@ -2350,27 +2347,27 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C41" s="1">
         <v>2019</v>
@@ -2379,27 +2376,27 @@
         <v>125</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C42" s="1">
         <v>2015</v>
@@ -2408,27 +2405,27 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C43" s="1">
         <v>2018</v>
@@ -2437,30 +2434,30 @@
         <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C44" s="1">
         <v>2018</v>
@@ -2469,22 +2466,22 @@
         <v>106</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD87C4E8-6E49-7343-B9EF-E9214E9106AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F812FD-A310-6A4E-B96B-38E94745EEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="14420" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
@@ -669,9 +669,6 @@
     <t>Expert, Crowdsourced, and Machine Assessment of Suicide Risk via Online Postings</t>
   </si>
   <si>
-    <t>Sing, Nair, Zirikly, Friedenberg, Daum� III, Resnik</t>
-  </si>
-  <si>
     <t>Random sampling and then manual annotation by expert + non-expert annotators; 4 levels of risk</t>
   </si>
   <si>
@@ -855,6 +852,9 @@
   </si>
   <si>
     <t>http://ir.cs.georgetown.edu/downloads/macavaney-clpsych2018.pdf</t>
+  </si>
+  <si>
+    <t>Sing, Nair, Zirikly, Friedenberg, Daumé III, Resnik</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2193,7 +2193,7 @@
         <v>206</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="C35" s="1">
         <v>2018</v>
@@ -2205,53 +2205,53 @@
         <v>132</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C36" s="1">
         <v>2018</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>174</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C37" s="1">
         <v>2017</v>
@@ -2263,27 +2263,27 @@
         <v>65</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="C38" s="1">
         <v>2017</v>
@@ -2292,24 +2292,24 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C39" s="1">
         <v>2019</v>
@@ -2321,24 +2321,24 @@
         <v>132</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C40" s="1">
         <v>2016</v>
@@ -2347,27 +2347,27 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="C41" s="1">
         <v>2019</v>
@@ -2376,27 +2376,27 @@
         <v>125</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C42" s="1">
         <v>2015</v>
@@ -2405,27 +2405,27 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C43" s="1">
         <v>2018</v>
@@ -2434,30 +2434,30 @@
         <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="C44" s="1">
         <v>2018</v>
@@ -2466,22 +2466,22 @@
         <v>106</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F812FD-A310-6A4E-B96B-38E94745EEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321FFF2B-F5A5-DB4B-BC46-F737525E614E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="14420" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13660" windowHeight="14900" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="392">
   <si>
     <t>Paper</t>
   </si>
@@ -855,6 +855,387 @@
   </si>
   <si>
     <t>Sing, Nair, Zirikly, Friedenberg, Daumé III, Resnik</t>
+  </si>
+  <si>
+    <t>Towards Developing an Annotation Scheme for Depressive Disorder Symptoms: A Preliminary Study using Twitter Data</t>
+  </si>
+  <si>
+    <t>Mowery, Bryan, Conway</t>
+  </si>
+  <si>
+    <t>Major Depressive Disorder</t>
+  </si>
+  <si>
+    <t>129 Tweets</t>
+  </si>
+  <si>
+    <t>Manual Annotation, hierarchical schema. Data queried from API using keywords.</t>
+  </si>
+  <si>
+    <t>Pilot Study</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W15-1211/</t>
+  </si>
+  <si>
+    <t>Automatically Generating Pschiatric Case Note From Digital Transcripts of Doctor-Patient Conversations</t>
+  </si>
+  <si>
+    <t>Kazi, Kahanda</t>
+  </si>
+  <si>
+    <t>EHR Categories: Client Details, Chief Complaint, Family History, Social History, Medical History, Other</t>
+  </si>
+  <si>
+    <t>18 Doctor-patient Transcripts (13 synthetic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://search.alexanderstreet.com/health- sciences/counseling-therapy </t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W19-1918/</t>
+  </si>
+  <si>
+    <t>Detecting Changes in Suicide Content Manifested in Social Media Following Celebrity Suicides</t>
+  </si>
+  <si>
+    <t>Kumar, Dredze, Coppersmith, De Choudury</t>
+  </si>
+  <si>
+    <t>Reddit, Wikipedia</t>
+  </si>
+  <si>
+    <t>Participation in r/SuicideWatch</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5507358/</t>
+  </si>
+  <si>
+    <t>Using Linguistic Features to Estimate Suicide Probability of Chinese Microblog Users</t>
+  </si>
+  <si>
+    <t>Zhang, Huang, Liu, Chen, Zhu</t>
+  </si>
+  <si>
+    <t>Sina Weibo</t>
+  </si>
+  <si>
+    <t>Survey (Suicide Probability Scale)</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-319-15554-8_45</t>
+  </si>
+  <si>
+    <t>Identifying Chinese Microblog Users with High Suicide Probability Using Internet-Based Profile and Linguistic Features: Classification Model</t>
+  </si>
+  <si>
+    <t>Guan, Hao, Cheng, Yip, Zhu</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26543921</t>
+  </si>
+  <si>
+    <t>Detecting Suicidal Ideation in Chinese Microblogs with Psychological Lexicons</t>
+  </si>
+  <si>
+    <t>Huang, Zhang, Liu, Chiu, Li, Zhu</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1411.0778</t>
+  </si>
+  <si>
+    <t>Distinguishing Clinical Sentiment: The Importance of Domain Adaptation in Psychiatric Patient Health Records</t>
+  </si>
+  <si>
+    <t>Holderness, Cawkwell, Bolton, Pustejovsky, Hall</t>
+  </si>
+  <si>
+    <t>EHR</t>
+  </si>
+  <si>
+    <t>EHR Categories: Appearance, Mood, Interpersonal, Substance Use, Occupation, Thought Content, Thought Process</t>
+  </si>
+  <si>
+    <t>Manual Annotation (see Holderness et al., 2018)</t>
+  </si>
+  <si>
+    <t>4,500 Sentences</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W19-1915/</t>
+  </si>
+  <si>
+    <t>The Language of Social Support in Social edia and its Effect on Suicidal Ideation Risk</t>
+  </si>
+  <si>
+    <t>De Choudury, Kiciman</t>
+  </si>
+  <si>
+    <t>Subreddit Participation; classes distinguished based on timeperiod of posting and movement between r/SuicideWatch and other mental-health subreddits</t>
+  </si>
+  <si>
+    <t>909 individuals</t>
+  </si>
+  <si>
+    <t>1,053 individuals (6,754 posts)</t>
+  </si>
+  <si>
+    <t>1,038 individuals (Up to 2,000 messages)</t>
+  </si>
+  <si>
+    <t>66,059 posts from 19,159 individuals</t>
+  </si>
+  <si>
+    <t>440 individuals MH to SW (62,024 comments of support from 32,362 unique users);
+440 individuals MH (41,894 comments of support from 21,358 unique users)</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/en-us/research/publication/language-social-support-social-media-effect-suicidal-ideation-risk/</t>
+  </si>
+  <si>
+    <t>Mental Health Surveillance over Social Media with Digital Cohorts</t>
+  </si>
+  <si>
+    <t>Amir, Dredze, Ayers</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W19-3013/</t>
+  </si>
+  <si>
+    <t>Natural language processing to extract symptoms of severe mental illness from clinical text: the Clinical Record Interactive Search Comprehensive Data Extraction (CRIS-CODE) project</t>
+  </si>
+  <si>
+    <t>Jackson, Patel, Jayatilleke, Kolliakou, Ball, Gorrell, Roberts, Dobson, Stewart</t>
+  </si>
+  <si>
+    <t>Psychiatric concepts</t>
+  </si>
+  <si>
+    <t>Regular expressions; manual verification for 15 of the concepts; 50 concepts total</t>
+  </si>
+  <si>
+    <t>37,211 instances (training)
+2,950 instances (testing)</t>
+  </si>
+  <si>
+    <t>https://bmjopen.bmj.com/content/7/1/e012012</t>
+  </si>
+  <si>
+    <t>Feature Attention Network: Interpretable Depression Detection from Social Media</t>
+  </si>
+  <si>
+    <t>Song, You, Chunk, Park</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/Y18-1070/</t>
+  </si>
+  <si>
+    <t>Natural Language Processing for Mental Health: Large Scale Discourse Analysis of Counseling Conversations</t>
+  </si>
+  <si>
+    <t>Althoff, Clark, Leskovec</t>
+  </si>
+  <si>
+    <t>Counseling Outcome</t>
+  </si>
+  <si>
+    <t>Survey (interactive text-messaging sessions) regarding success of session</t>
+  </si>
+  <si>
+    <t>408 counselors; 3.2 million messages; 80,885 conversations</t>
+  </si>
+  <si>
+    <t>http://snap.stanford.edu/counseling/</t>
+  </si>
+  <si>
+    <t>http://timalthoff.com/docs/althoff-2016-mental_health.pdf</t>
+  </si>
+  <si>
+    <t>The Role of Features and Context on Suicide Ideation Detection</t>
+  </si>
+  <si>
+    <t>Wang, Wan, Paris</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/U16-1010/</t>
+  </si>
+  <si>
+    <t>Davcheva, Adam, Benlian</t>
+  </si>
+  <si>
+    <t>3 Online mental-health forums</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Forum participation (Depression, Bipolar Disorder, Anxiety, Panic Attacks, ADHD, Borderline Personality Disorder, OCD, PTSD)</t>
+  </si>
+  <si>
+    <t>49,113 threads; 500,754 posts; 75,000 individuals</t>
+  </si>
+  <si>
+    <t>2,000 posts (14% high, 56% possibly, 29% safe)</t>
+  </si>
+  <si>
+    <t>https://aisel.aisnet.org/cgi/viewcontent.cgi?article=1269&amp;context=wi2019</t>
+  </si>
+  <si>
+    <t>User Dynamics in Mental Health Forums -- A Sentiment Analysis Perspective</t>
+  </si>
+  <si>
+    <t>Using Automated Metaphor Identification to Aid in Detection and Prediction of First-Episode Schizophrenia</t>
+  </si>
+  <si>
+    <t>Guitiérrez, Corlett, Corcoran, Cecchi</t>
+  </si>
+  <si>
+    <t>Patient Interviews (First-episode Schizophrenia and Prodomal Syndromes)</t>
+  </si>
+  <si>
+    <t>First-episode: 17 patients and 15 healthy controls
+Prodomal Psychosis: 34 individuals at clinical high risk for psychosis</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/D17-1316/</t>
+  </si>
+  <si>
+    <t>Automated analysis of free speech predicts psychosis onset in high-risk youth</t>
+  </si>
+  <si>
+    <t>Bedi, Carrillo, Cecchi, Fernández Slezak, Sigman, Mota, Ribeiro, Javitt, Copelli, Corcoran</t>
+  </si>
+  <si>
+    <t>Patient Interviews</t>
+  </si>
+  <si>
+    <t>Schizophrenhia, Psychosis</t>
+  </si>
+  <si>
+    <t>Psychosis</t>
+  </si>
+  <si>
+    <t>Schizophrenia, Psychosis Diagnoses</t>
+  </si>
+  <si>
+    <t>Psychosis Diagnoses</t>
+  </si>
+  <si>
+    <t>34 individuals at clinical high risk for psychosis</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/npjschz201530</t>
+  </si>
+  <si>
+    <t>Adapting Deep Learning Methods for Mental Health Prediction on Social Media</t>
+  </si>
+  <si>
+    <t>Sekulic, Strube</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/D19-5542/</t>
+  </si>
+  <si>
+    <t>Multi-Task, Multi-Channel, Multi-Input Learning for Mental Illness Detection using Social Media Text</t>
+  </si>
+  <si>
+    <t>Kirinde Gamaarachichige, Inkpen</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/D19-6208/</t>
+  </si>
+  <si>
+    <t>Assessing the Efficacy of Clinical Sentiment Analysis and Topic Extraction in Psychiatric Readmission Risk Prediction</t>
+  </si>
+  <si>
+    <t>Alvarez-Mellado, Holderness, Miller, Dhang, Cawkwell, Bolton, Putesjovsky, Hall</t>
+  </si>
+  <si>
+    <t>Psychiatric Readmission</t>
+  </si>
+  <si>
+    <t>Medical history</t>
+  </si>
+  <si>
+    <t>2,346 clinical notes for 183 patients</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/D19-6211/</t>
+  </si>
+  <si>
+    <t>Dreaddit: A Reddit Dataset for Stress Analysis in Social Media</t>
+  </si>
+  <si>
+    <t>Turcan, McKeown</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Manual annotation via Mechanical Turk (Stress, Not Stress, Can't Tell)</t>
+  </si>
+  <si>
+    <t>3,554 labeled data points for 2,929 posts</t>
+  </si>
+  <si>
+    <t>http://www.cs.columbia.edu/~eturcan/data/dreaddit.zip</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/D19-6213/</t>
+  </si>
+  <si>
+    <t>Dilated LSTM with attention for Classification of Suicide Notes</t>
+  </si>
+  <si>
+    <t>Schoene, Lacy, Turner, Dethlefs</t>
+  </si>
+  <si>
+    <t>Death Row Last Statements, The Kernel/Tumblr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Row Death Row (Texas Department of Criminal Justices); </t>
+  </si>
+  <si>
+    <t>Suicide, Imminent Death, Depression, Lonliness</t>
+  </si>
+  <si>
+    <t>Last Statements: 431 notes
+Suicide Notes: 161 notes
+Depression Notes: 142 notes</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/D19-6217/</t>
+  </si>
+  <si>
+    <t>Latent Suicide Risk Detection on Microblog via Suicide-Oriented Word Embeddings and Layered Attention</t>
+  </si>
+  <si>
+    <t>Cao, Zhang, Feng, Wei, Wang, Li, He</t>
+  </si>
+  <si>
+    <t>Commenting in "Tree Hole" (a page on Sina Weibo from an individual who died by suicide)</t>
+  </si>
+  <si>
+    <t>7,329 individuals</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/D19-1181/</t>
+  </si>
+  <si>
+    <t>Gender and Cross-Cultural Differences in Social Media Disclosures of Mental Illness</t>
+  </si>
+  <si>
+    <t>De Choudury, Sharma, Logar, Eekhout, Cluasen Nielsen</t>
+  </si>
+  <si>
+    <t>Regular expressions</t>
+  </si>
+  <si>
+    <t>Candidate disclosures: 51,038,914 posts from 470,337 individuals
+Control: 66,214,850 posts from 480,685 individuals</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/citation.cfm?id=2998220</t>
   </si>
 </sst>
 </file>
@@ -890,9 +1271,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1209,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2484,6 +2869,670 @@
         <v>265</v>
       </c>
     </row>
+    <row r="45" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321FFF2B-F5A5-DB4B-BC46-F737525E614E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F889998F-008F-1B4E-9DA4-293B9DEE3ACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13660" windowHeight="14900" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26060" windowHeight="13640" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="421">
   <si>
     <t>Paper</t>
   </si>
@@ -1236,6 +1236,97 @@
   </si>
   <si>
     <t>https://dl.acm.org/citation.cfm?id=2998220</t>
+  </si>
+  <si>
+    <t>Tracking Suicide Risk Factors Through Twitter in the US</t>
+  </si>
+  <si>
+    <t>Jashinky, Burton, Hanson, West, Giraud-Carrier, Barnes, Argyle</t>
+  </si>
+  <si>
+    <t>Deep Learning for Depression Detection of Twitter Users</t>
+  </si>
+  <si>
+    <t>Husseini Orabi, Buddhitha, Husseini Orabi, Inkpen</t>
+  </si>
+  <si>
+    <t>Attention-based LSTM for Psychological Stress Detection from Spoken Language Using Distant Supervision</t>
+  </si>
+  <si>
+    <t>Winata, Pepijin Kampman, Fung</t>
+  </si>
+  <si>
+    <t>Suicidal Trend Analysis of Twitter using Machine Learning and Neural Network</t>
+  </si>
+  <si>
+    <t>Shahreen, Subhani, Mahfuzur Rahman</t>
+  </si>
+  <si>
+    <t>Twitter, Interviews</t>
+  </si>
+  <si>
+    <t>Interview Corpus: manual annotation from 3 human judges.
+Twitter Corpus: Distant supervision based on hashtag usage at the end of a Tweet</t>
+  </si>
+  <si>
+    <t>Natural Stress Emotion Corpus: 38 student interviews with 2,272 binary-labeled utterances
+Stress Twitter Corpus: 367,312 Tweets (59,768 stressed)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8461990</t>
+  </si>
+  <si>
+    <t>Keyphrases/Keywords - Unclear how the negative class is determined</t>
+  </si>
+  <si>
+    <t>Not stated</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8554733/</t>
+  </si>
+  <si>
+    <t>Reproducible via API (but lacking clear instructions)</t>
+  </si>
+  <si>
+    <t>CLPsych: Train (326 depressed, 246 PTSD, 573 control); Test (150 depressed, 150 PTSD, 300 control)
+Bell Lets Talk: 154 individuals (53 depressed)</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W18-0609</t>
+  </si>
+  <si>
+    <t>Bell Lets Talk dataset detailed in Jamil et al., 2017 (Masters Thesis)</t>
+  </si>
+  <si>
+    <t>CLPsych: Regular-expressions (e.g. "I was just diagnosed with X"); age and gender matched controls; manual annotation of correctness
+Bell Lets Talk: Hashtag (#BellLetsTalk) and manual annotation</t>
+  </si>
+  <si>
+    <t>Monitoring Tweets for Depression to Detect At-risk Users</t>
+  </si>
+  <si>
+    <t>Jamil</t>
+  </si>
+  <si>
+    <t>Bell Lets Talk: Hashtag (#BellLetsTalk) and manual annotation; additional filtering done to remove promotional material</t>
+  </si>
+  <si>
+    <t>154 individuals (53 depressed)</t>
+  </si>
+  <si>
+    <t>https://paulallen.ca/docs/Jamil,%20Z%20Monitoring%20tweets%20for%20depression%20to%20detect%20at-risk%20users%20-%202017.pdf</t>
+  </si>
+  <si>
+    <t>Keyphrases/Keywords based on suicide-related terms. Additional set of filter criteria to remove sarcastic/irrelevant material. Two raters verified random sample of 1,000 tweets (agreement 79.6% of the time). Of the 1,000 tweets, 789 were found to be relevant.</t>
+  </si>
+  <si>
+    <t>733,011 tweets from 594,776 individuals</t>
+  </si>
+  <si>
+    <t>Not a predictive task, but rather a tracking study.</t>
+  </si>
+  <si>
+    <t>https://econtent.hogrefe.com/doi/abs/10.1027/0227-5910/a000234?journalCode=cri</t>
   </si>
 </sst>
 </file>
@@ -1594,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3533,6 +3624,151 @@
         <v>391</v>
       </c>
     </row>
+    <row r="68" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F889998F-008F-1B4E-9DA4-293B9DEE3ACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA56CEFF-63CE-A346-AFA8-184434F880F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26060" windowHeight="13640" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
+    <workbookView xWindow="13660" yWindow="460" windowWidth="13660" windowHeight="14900" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="G40" zoomScale="86" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3771,5 +3771,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA56CEFF-63CE-A346-AFA8-184434F880F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878135BB-13DE-B04D-B8FF-564CDD84247C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13660" yWindow="460" windowWidth="13660" windowHeight="14900" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" zoomScale="86" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keith/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kharrigian/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878135BB-13DE-B04D-B8FF-564CDD84247C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C160EC-E6B8-5540-B6E1-5977EBEF5FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13660" yWindow="460" windowWidth="13660" windowHeight="14900" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="870">
   <si>
     <t>Paper</t>
   </si>
@@ -94,9 +96,6 @@
   </si>
   <si>
     <t>Coppersmith, Dredze, Harman</t>
-  </si>
-  <si>
-    <t>Bipolar Personality Disorder, Depression, PTSD, Seasonal Affective Disorder (SAD)</t>
   </si>
   <si>
     <t>https://www.aclweb.org/anthology/W14-3207/</t>
@@ -113,9 +112,6 @@
   </si>
   <si>
     <t>Coppersmith, Dredze, Harman, Hollingshead</t>
-  </si>
-  <si>
-    <t>ADHD, Anxiety, Bipolar Personality Disorder, Borderline Personality Disorder, Depression, Eating, OCD, PTSD, Schizophrenia, Seasonal Affective Disorder</t>
   </si>
   <si>
     <t>ADHD: 102 individuals (384k tweets)
@@ -471,9 +467,6 @@
     <t>https://www.jmir.org/2013/10/e217/</t>
   </si>
   <si>
-    <t>Detecting Linguistic Traces of Depression Topic-Restricted Text</t>
-  </si>
-  <si>
     <t>Wolohan, Hirgaga, Mukerjee, Sayyed</t>
   </si>
   <si>
@@ -808,9 +801,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cohan, Desmet, Yates, Soldaini, MacAvaney, Goharian </t>
-  </si>
-  <si>
-    <t>ADHD, Anxiety, Autism, Bipolar Personality Disorder, Depression, Eating Disorder, Obsessive Compulsive Disorder, PTSD, Schizophrenia</t>
   </si>
   <si>
     <t>High-precision regular expressions</t>
@@ -965,9 +955,6 @@
     <t>https://www.aclweb.org/anthology/W19-1915/</t>
   </si>
   <si>
-    <t>The Language of Social Support in Social edia and its Effect on Suicidal Ideation Risk</t>
-  </si>
-  <si>
     <t>De Choudury, Kiciman</t>
   </si>
   <si>
@@ -1327,6 +1314,1383 @@
   </si>
   <si>
     <t>https://econtent.hogrefe.com/doi/abs/10.1027/0227-5910/a000234?journalCode=cri</t>
+  </si>
+  <si>
+    <t>Facebook language predicts depression in medical records</t>
+  </si>
+  <si>
+    <t>A multilevel predictive model for detecting social network users with depression</t>
+  </si>
+  <si>
+    <t>Exploring the utility of community-generated social media content for detecting depression: an analytical study on instagram</t>
+  </si>
+  <si>
+    <t>Detecting suicidal ideation on forums: proof-of-concept study</t>
+  </si>
+  <si>
+    <t>Pirina, I. &amp; Çöltekin, Ç</t>
+  </si>
+  <si>
+    <t>Measuring the latency of depression detection in social media.</t>
+  </si>
+  <si>
+    <t>Detecting anxiety on Reddit</t>
+  </si>
+  <si>
+    <t>Topic Model for Identifying Suicidal Ideation in Chinese Microblog</t>
+  </si>
+  <si>
+    <t>User-level psychological stress detection from social media using deep neural network</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>Psychological stress detection from cross-media microblog data using deep sparse neural network</t>
+  </si>
+  <si>
+    <t>Detecting stress based on social interactions in social networks</t>
+  </si>
+  <si>
+    <t>A depression detection model based on sentiment analysis in micro-blog social network</t>
+  </si>
+  <si>
+    <t>Cross-domain depression detection via harvesting social media</t>
+  </si>
+  <si>
+    <t>Teenagers’ stress detection based on time-sensitive micro-blog com- ment/response actions</t>
+  </si>
+  <si>
+    <t>Recovery Amid Pro-Anorexia: Analysis of Recovery in Social Media</t>
+  </si>
+  <si>
+    <t>Detecting cognitive distortions through machine learning text analytics</t>
+  </si>
+  <si>
+    <t>A collaborative approach to identifying social media markers of schizophrenia by employing machine learning and clinical appraisals</t>
+  </si>
+  <si>
+    <t>Validating machine learning algorithms for twitter data against established measures of suicidality</t>
+  </si>
+  <si>
+    <t>Predicting postpartum changes in emotion and behavior via social media</t>
+  </si>
+  <si>
+    <t>De Choudhury</t>
+  </si>
+  <si>
+    <t>Social Media As a Measurement Tool of Depression in Populations</t>
+  </si>
+  <si>
+    <t>Toward Macro-Insights for Suicide Prevention: Analyzing Fine-Grained Distress at Scale</t>
+  </si>
+  <si>
+    <t>Small but Mighty: Affective Micropatterns for Quantifying Mental Health from Social Media Language</t>
+  </si>
+  <si>
+    <t>Mining Twitter data to improve detection of schizophrenia</t>
+  </si>
+  <si>
+    <t>Quantifying the language of schizophrenia in social media</t>
+  </si>
+  <si>
+    <t>Twitter: a good place to detect health conditions</t>
+  </si>
+  <si>
+    <t>Beyond LDA: exploring supervised topic modeling for depression-related language in Twitter</t>
+  </si>
+  <si>
+    <t>Inferring Mood Instability on Social Media by Leveraging Ecological Momentary Assessments</t>
+  </si>
+  <si>
+    <t>MIDAS: Mental illness detection and analysis via social media</t>
+  </si>
+  <si>
+    <t>Predicting depression from language-based emotion dynamics: longitudinal analysis of facebook and twitter status updates</t>
+  </si>
+  <si>
+    <t>Depression detection via harvesting social media: A multimodal dictionary learning solution</t>
+  </si>
+  <si>
+    <t>On estimating depressive tendency of twitter users from their tweet data</t>
+  </si>
+  <si>
+    <t>Emotional and Linguistic Cues of Depression from Social Media</t>
+  </si>
+  <si>
+    <t>Detecting and Characterizing Eating-Disorder Communities on Social Media</t>
+  </si>
+  <si>
+    <t>Defining patients with depressive disorder by using textual information</t>
+  </si>
+  <si>
+    <t>Affective and content analysis of online depression communities</t>
+  </si>
+  <si>
+    <t>Understanding and Discovering Deliberate Self-harm Content in Social Media</t>
+  </si>
+  <si>
+    <t>Exploiting Temporal Information in a Two-Stage Classification Framework for Content-Based Depression</t>
+  </si>
+  <si>
+    <t>Suicide Ideation of Individuals in Online Social Networks</t>
+  </si>
+  <si>
+    <t>Machine Classification and analysis of suicide-related communication on Twitter</t>
+  </si>
+  <si>
+    <t>Methological Gaps in Predicting Mental Health States from Social Media: Triangulating Diagnostic Signals</t>
+  </si>
+  <si>
+    <t>Assessing suicide risk and emotional distress in Chinese social media: a text mining and machine learning study</t>
+  </si>
+  <si>
+    <t>What does social media say about your stress?</t>
+  </si>
+  <si>
+    <t>An improved model for depression detecting in micro-blog social network</t>
+  </si>
+  <si>
+    <t>Anorexia on Tumblr: A Characterization Study on Anorexia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suicide Risk Assessment with Multi-level Dual-Context Language and BERT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accommodating Grief on Twitter: An Analysis of Expressions of Grief Among Gang Involved Youth on Twitter Using Qualitative Analysis and Natural Language Processing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic detection of eating disorder-related social media posts that could benefit from a mental health intervention </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic detection of cyberbullying in social media text </t>
+  </si>
+  <si>
+    <t>Benchmarking Agression Identification in Social Media</t>
+  </si>
+  <si>
+    <t>Detection of Depression-related Posts in Reddit Social Media Forum</t>
+  </si>
+  <si>
+    <t>Detection of Suicide-Related Posts in Twitter Data Streams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioInfo@UAVR at eRisk 2019: delving into social media texts for the early detection of mental and food disorders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#MyDepressionLooksLike: Examining Public Discourse About Depression on Twitter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Framework for Early Detection of Antisocial Behavior on Twitter Using Natural Language Processing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Language Processing of Social Media as Screening for Suicide Risk </t>
+  </si>
+  <si>
+    <t>Coppersmith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Just Depressed: Bipolar Disorder Prediction on Reddit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perception Differences between the Depressed and Non-Depressed Users in Twitter </t>
+  </si>
+  <si>
+    <t>Predictive linguistic features of schizophrenia</t>
+  </si>
+  <si>
+    <t>Quick and (maybe not so) Easy Detection of Anorexia in Social Media Posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-Supervised Approach to Monitoring Clinical Depressive Symptoms in Social Media </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Topic Modeling to Detect and Describe Self-Injurious and Related Content on a Large- Scale Digital Platform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Depressive Symptoms and Psychosocial Stressors on Twitter: A Corpus-Based Study </t>
+  </si>
+  <si>
+    <t>"Let Me Tell You About Your Mental Health!" Contextualized Classification of Reddit Posts to DSM-5 for Web-based Intervention</t>
+  </si>
+  <si>
+    <t>Identifying Depressive Users in Twitter Using Multimodal Analysis</t>
+  </si>
+  <si>
+    <t>Detecting Linguistic Traces of Depression Topic-Restricted Text: Attending to Self-Stigmatized Depression with NLP</t>
+  </si>
+  <si>
+    <t>Eichstaedt, Smith, Merchant, Ungar, Crutchley, Pretoiuc-Pietro, Asch, Schwartz</t>
+  </si>
+  <si>
+    <t>International Classification of Disease (ICD) codes in medical records</t>
+  </si>
+  <si>
+    <t>683 patients (114 depressed)</t>
+  </si>
+  <si>
+    <t>Not available (PHI restrictions)</t>
+  </si>
+  <si>
+    <t>Wongkoblap, Vadillo, Curcin</t>
+  </si>
+  <si>
+    <t>Life Satisfaction, Depression</t>
+  </si>
+  <si>
+    <t>Satisfaction with Life Scale, CES-D</t>
+  </si>
+  <si>
+    <t>SWLS: 1298 SWLS &lt;25, 785 SWLS &gt;= 25
+CES-D: 148 CES-D &lt; 20; 466 &gt;= 20</t>
+  </si>
+  <si>
+    <t>Reece, Danforth</t>
+  </si>
+  <si>
+    <t>CES-D</t>
+  </si>
+  <si>
+    <t>166 individuals (71 of whom had a history of depression)</t>
+  </si>
+  <si>
+    <t>Not Available (confidentiality restrictions)</t>
+  </si>
+  <si>
+    <t>Ricard, Marsch, Crosier, Hassanpour</t>
+  </si>
+  <si>
+    <t>749 individuals</t>
+  </si>
+  <si>
+    <t>Not Available (protocol restrictions)</t>
+  </si>
+  <si>
+    <t>Zhou, Zhang, Luo</t>
+  </si>
+  <si>
+    <t>Depression, Drug Use, Alcohol Use, Sleep Disorder, Eating Disorder</t>
+  </si>
+  <si>
+    <t>Hashtags, Sentiment</t>
+  </si>
+  <si>
+    <t>Posts Per Class
+-- Depression: 18,203
+-- Drug Use: 138,021
+-- Drinking: 4,979
+-- Sleep Disorder: 4,758
+-- Eating Disorder: 234
+No Control, Just Choosing Which Disorder</t>
+  </si>
+  <si>
+    <t>Cohan, Young, Yates, Goharian</t>
+  </si>
+  <si>
+    <t>Self-harm/Suicidal Ideation</t>
+  </si>
+  <si>
+    <t>Manual annotation via forum moderators</t>
+  </si>
+  <si>
+    <t>1188 labeled posts (40 crisis, 137 red, 296 amber, 715 green)</t>
+  </si>
+  <si>
+    <t>Soldaini, Walsh, Cohan, Han, Goharian</t>
+  </si>
+  <si>
+    <t>Change in Distress (Self-harm/Suicidal Ideation)</t>
+  </si>
+  <si>
+    <t>Manual annotation via forum moderators, used to train a model that labels severity into Green (safe) and Flagged (Top 3 levels of crisis)</t>
+  </si>
+  <si>
+    <t>1,040 threads</t>
+  </si>
+  <si>
+    <t>CLPsych 2016 dataset</t>
+  </si>
+  <si>
+    <t>Aladağ, Murderrisoglu, Akbas, Zahmacioglu, Bingol</t>
+  </si>
+  <si>
+    <t>Manual annotation of posts with r/SuicideWatch, r/Depression, r/Anxiety, and r/ShowerThoughts</t>
+  </si>
+  <si>
+    <t>785 posts</t>
+  </si>
+  <si>
+    <t>Chancellor, Hu, De Choudhury</t>
+  </si>
+  <si>
+    <t>Weight loss support vs. Eating-disorder encouragement</t>
+  </si>
+  <si>
+    <t>Binary classification task of whether a comment was posted In r/Loseit or r/proED</t>
+  </si>
+  <si>
+    <t>r/loseit: 2.3 million comments in 164k posts
+r/proED: 123k comments from 8.5k posts</t>
+  </si>
+  <si>
+    <t>Dutta, Ma, De Choudhury</t>
+  </si>
+  <si>
+    <t>Change in social interaction based on inferred anxiety</t>
+  </si>
+  <si>
+    <t>Regular expressions to identify Twitter users with self-disclosed anxiety; manual annotation of validity for the users. Tweets annotated as being anxiety-related based on keywords (LIWC + embedding similarity expansion) and model trained on r/Anxiety vs. Control data</t>
+  </si>
+  <si>
+    <t>200 individals (209,290 tweets)</t>
+  </si>
+  <si>
+    <t>Gkotsis, Oellrich, Velupillai, Liakata, Hubbard, Dobson, Dutta</t>
+  </si>
+  <si>
+    <t>Borderline Personality Disorder, Bipolar Disorder, Schizophrenia, Anixety, Depression, Self-harm, Suicidality, Addiction, Alcoholism, Opiates, Autism, and Control</t>
+  </si>
+  <si>
+    <t>Classification on a post-level of each mental health condition. Assignments based on subreddit. Authors manually labeled 160 posts from the given 16 mental-health subreddits to verify that they consistently matched the nominal purpose of the given subreddit</t>
+  </si>
+  <si>
+    <t># of Comments: Borderline (11,880), Bipolar (41,636), Schizophrenia (4,963), Anxiety (57,523), Depression (197,436), Self-harm (17,102), Suicidality (90,518), Addiction (4,360), Opiates (65,143), Autism (9,470), Control (476,388)</t>
+  </si>
+  <si>
+    <t>Same dataset as "The language of mental health problems in social media" (2016)</t>
+  </si>
+  <si>
+    <t>Reddit, Online Support Forums</t>
+  </si>
+  <si>
+    <t>Depression; Breast Cancer Support; Familiar Support; Relationship Support</t>
+  </si>
+  <si>
+    <t>400 posts per data set group</t>
+  </si>
+  <si>
+    <t>Leverages external data sets from Ramirez-Esparza 2008 and Gorunova 2007 (online support forums)</t>
+  </si>
+  <si>
+    <t>External data set of posts made in an online depression Forum (Ramirez-Esparza et al. 2008) and online breast cancer support forum (Gorbunova 2007); Reddit data set curated using regular expressions on a post-level (e.g. I was diagnosed with) in the r/Depression subreddit; Control users sampled from breast cancer, family, and relationship support subreddits; No use of manual verification (expect false positives)</t>
+  </si>
+  <si>
+    <t>Shen, Jia, Shen Feng, He, Luan, Tang, Tiropanis, Chua, Hall</t>
+  </si>
+  <si>
+    <t>Twitter, Weibo</t>
+  </si>
+  <si>
+    <t>Weibo: 580 depressed, 580 control
+Twitter (Shen 2017): 1394 depressed, 1394 control</t>
+  </si>
+  <si>
+    <t>Regular expressions, manual verification. Control group sampled randomly. Consider sample of post history 4-weeks around post used for labeling</t>
+  </si>
+  <si>
+    <t>Uses Shen et al. 2017 for Twitter data set</t>
+  </si>
+  <si>
+    <t>Shen, Jia, Feng, Zhang, Hu, Chua, Zhu</t>
+  </si>
+  <si>
+    <t>Freely available for download</t>
+  </si>
+  <si>
+    <t>http://depressiondetection.droppages.com</t>
+  </si>
+  <si>
+    <t>Depression: 1402 users (292,564 tweets)
+Control: &gt;300M users (&gt;10 billion tweets)
+Candidate Depression: 36,993 users (35M tweets)</t>
+  </si>
+  <si>
+    <t>Regular expressions (strict match) to identify depressed users, no mention of "depress" character string to annotate control group; create candidate depression group using loose character match to "depress"</t>
+  </si>
+  <si>
+    <t>Ireland, Iserman</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Identified users who posted in anxiety related subreddits and then selected control users based on the non-mental-health-related subreddits that the anxiety-users tended to post in</t>
+  </si>
+  <si>
+    <t>1,569 documents (523 anxiety concatenated histories, 523 anxiety concatenated histories from non-anxiety forums, 523 comparison concatentated histories from members not in non-anxiety forums)</t>
+  </si>
+  <si>
+    <t>The Language of Social Support in Social Media and its Effect on Suicidal Ideation Risk</t>
+  </si>
+  <si>
+    <t>Ernala, Birnbaum, Candan, Rizvi, Sterling, Kane, De Choudury</t>
+  </si>
+  <si>
+    <t>Twiter, Facebook</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider 4 types of labels: Affiliation Data (based on following Schizophrenia and Related Disorders Alliance of America account), Self-Report (e.g. regular expressions); Clinically-appraised Self-report (e.g. self-report + clinicician assessment of history), Schizophrenic Patients in IRB Study. Control data sampled to match based on data characteristics (e.g. language, followers, friends) </t>
+  </si>
+  <si>
+    <t>Affiliation: 1847 users
+Self-report: 412 users
+Clinically-appraised Self-report: 153 users
+Patients: 88 patients
+Control: Equal number for each type</t>
+  </si>
+  <si>
+    <t>Braithwaite, Giraud-Carrier, West, Barnes, Lee Hanson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suicidality </t>
+  </si>
+  <si>
+    <t>Recruit participants via Mturk; Participants take DSI-SS (Depressive Symptom Inventory-Suicide Subscale). Participants with score &gt; 2 labeled as suicidal.</t>
+  </si>
+  <si>
+    <t>135 Partipants (17 Suicidal)</t>
+  </si>
+  <si>
+    <t>Inferring Social Meda Users' Mental Health Status from Multimodal Information</t>
+  </si>
+  <si>
+    <t>Ive, Gkotis, Dutta, Stewart, Velupillai</t>
+  </si>
+  <si>
+    <t>Depression users identified from r/depression based on regular expressions (disclosures) and then manually authenticated by authors (require physician diagnosis). Control group randomly sampled from non-depression subreddits and users who posted in r/depression but didn't report having depression</t>
+  </si>
+  <si>
+    <t>Up to 2000 posts per individual. Final data set had 531,453 submissions from 892 users (125 depressed).</t>
+  </si>
+  <si>
+    <t>eRISK 2017 Dataset</t>
+  </si>
+  <si>
+    <t>Sadeque, Xu, Bethard</t>
+  </si>
+  <si>
+    <t>Saha, De Choudhury</t>
+  </si>
+  <si>
+    <t>Collect posts from r/stress community (1402) to use as "high stress" class. 100,000 random posts sampled by crawling landing page of Reddit to create "low-stress" class.</t>
+  </si>
+  <si>
+    <t>Randomly balanced classes, sampling ~2000 posts total for their data set</t>
+  </si>
+  <si>
+    <t>Also identified data in college subreddits (pre- and post- campus shooting incidents), but it doesn't have any ground truth associated with it.</t>
+  </si>
+  <si>
+    <t>Hanwen Shen, Rudzicz</t>
+  </si>
+  <si>
+    <t>Collect posts from anxiety-related subreddits (r/anxiety, r/panicparty, r/healthanxiety, r/socialanxiety). Sampled posts from other first-person point-of-view subreddits (see paper) to serve as the control group</t>
+  </si>
+  <si>
+    <t>Anxiety (9971 posts), Control (12,837 posts)</t>
+  </si>
+  <si>
+    <t>Cheng, Li, Kwok, Zhu, Yip</t>
+  </si>
+  <si>
+    <t>Suicidal Ideation, Depression, Anxiety, and Stress</t>
+  </si>
+  <si>
+    <t>Web-based survey asked respondents to fill out Chinese version of Suicide Probability Scale (SPS), Chinese version of the DASS-21 was used to measure the respondents' emotional distress, and Weibo Suicide Communication (single question asking whether a respondent posted anything in the last 12 months indicating they wanted to kill themselves)</t>
+  </si>
+  <si>
+    <t>974 respondents. 117 has WSC, 190 high suicide risk, 49 severe depression, 140 severe anxiety, 45 severe stress</t>
+  </si>
+  <si>
+    <t>Huang, Li, Zhang, Liu, Chiu, Zhu</t>
+  </si>
+  <si>
+    <t>7314 posts (664 suicide)</t>
+  </si>
+  <si>
+    <t>Human annotors determined level of sucidial ideation in each microblog. 3 Levels (sucide warning sign but no plan, suicide plan but no attempt, plan and attempt). All levels transformed into a single binary task: suicidal ideation or not</t>
+  </si>
+  <si>
+    <t>Lin, Jia, Guo, Xue, Li, Huang, Cai, Feng</t>
+  </si>
+  <si>
+    <t>Regular expressions find "I feel stressed" vs. "I feel relaxed" on a weekly level per individual</t>
+  </si>
+  <si>
+    <t>492676 posts (239038 stressed). 23304 individuals (11074 stressed)</t>
+  </si>
+  <si>
+    <t>Chinese Language Only; also examined performance on 3 other datasets (construction unclear) on Sina Weibo, Tencent Weibo, and Twitter</t>
+  </si>
+  <si>
+    <t>Sina Weibo, Tencent Weibo, Twitter</t>
+  </si>
+  <si>
+    <t>Hashtag-based labeling approach, hashtags fall into 5-categories (affection, work, social, physiological, and others). Also crawl tweets with no stressed hashtags. Randomly sampled 500 tweets for labeling by 3 people to validate accuracy of distant supervision (95% accuracy)</t>
+  </si>
+  <si>
+    <t>57785 tweets (14931 not stressed)</t>
+  </si>
+  <si>
+    <t>Chinese Language; Also includes images</t>
+  </si>
+  <si>
+    <t>Wang, Zhang, Ji, Sun, Wu, Bao</t>
+  </si>
+  <si>
+    <t>Questionairre-based and interviews by psychologists</t>
+  </si>
+  <si>
+    <t>122 depressed, 346 non-depressed individuals (6013 posts total)</t>
+  </si>
+  <si>
+    <t>Zhao, Jia, Feng</t>
+  </si>
+  <si>
+    <t>Tencent Weibo</t>
+  </si>
+  <si>
+    <t>Authors interviewed high school students and had them mnaually scan their own tweets to annotate them on four stress categories</t>
+  </si>
+  <si>
+    <t>36 individuals (21,648 tweets)</t>
+  </si>
+  <si>
+    <t>Tumblr</t>
+  </si>
+  <si>
+    <t>Anorexia (Recovery)</t>
+  </si>
+  <si>
+    <t>13,317 users (2,353 recovery, 10,964 non-recovery); 68 MM posts (25MM recovery, 42MM non-recovery). Posts shared between 2/20/2007 and 8/4/2014</t>
+  </si>
+  <si>
+    <t>Snowball sampling to identify eating disorder-related posts (304 tags, 55,334 posts, 18,923 users); collect historical data for 13,317 active users; identified subset of tags related to recovery and relapse, requiring 5 distinct posts with associated tags to be assigned to recovery or relapse group; manual verification (kohen's kappa .83) for random sample of 150 recovery users by researchers and clinical psychologist</t>
+  </si>
+  <si>
+    <t>English only</t>
+  </si>
+  <si>
+    <t>Chancellor, Mitra, De Choudhury</t>
+  </si>
+  <si>
+    <t>Anorexia (Recovery), Anorexia</t>
+  </si>
+  <si>
+    <t>Snowball sampling to identify eating disorder-related posts (304 tags, 55,334 posts, 18,923 users); separate pro-recovery and pro-ana communities based on tag subset (identified using co-occurrence methods); sampled 32,000 control posts using 10 most frequent tags (e.g. GIF, art, food) meant to represent general tumblr use</t>
+  </si>
+  <si>
+    <t>Anorexia: 55,334 posts, 18,293 users (11,301 pro-recovery, 44,033 pro-ana); Conttrol: 32,000 posts</t>
+  </si>
+  <si>
+    <t>Simms, Ramstedt, Rich, Richards, Martinez, Giraud-Carrier</t>
+  </si>
+  <si>
+    <t>Cognitive Distortion</t>
+  </si>
+  <si>
+    <t>Query posts containing "personal", "lonely", "pathetic", and "sad" tags (493 total, 459 ractually eadable); each post annotated by 4 of the authors as exhibiting distorted or undistorted thought patterns</t>
+  </si>
+  <si>
+    <t>459 posts (206 distorted, 252 undistorted)</t>
+  </si>
+  <si>
+    <t>Birnbaum, Kiranmai Ernala, Rizvi, De Choudhury, Kane</t>
+  </si>
+  <si>
+    <t>Regular expressions to identify Twitter users with self-disclosed schizophrenia (21,254 posts by 15,504 users); randomly sampled 671 users for manual clinical appraisal; control group was random saple w/o mentions of schizophrenia or psychosis; psychiatrist and graduate-level mental health clinician used disclosure tweet and +- 10 surrounding tweets to verify authenticity</t>
+  </si>
+  <si>
+    <t>Schizophrenia Authenticity (146 yes, 101 maybe, 424 no Users) with (1.9M, 1.5M, and 8.8M tweets, respetively); Additional sample of 100 users (18 authenticated positive by experts)</t>
+  </si>
+  <si>
+    <t>Burnap, Colombo, Scourfield</t>
+  </si>
+  <si>
+    <t>Use 4 suicide related websites (experienceproject, enotalone, takethislife, recoveryourlife) and tumblr as data for identifying suicide-related lexicon (via TF-IDF); track 62 resulting keywords (n-grams 1-5) on Twitter for 6 weeks starting in Feb. 2014; sample 800 tweets containing keywords and an additional 200 containing names of publicised suicides; crowdsource 4 annotations per tweet amongst 7 categories to distinguish suicide relevance; removed tweets with &lt; 75% agreement</t>
+  </si>
+  <si>
+    <t>816 Tweets (13% evidence of possible suicidal ideation)</t>
+  </si>
+  <si>
+    <t>De Choudhury, Counts, Horvitz</t>
+  </si>
+  <si>
+    <t>Behavioral Change for New Mothers (re: Postpartum Depression</t>
+  </si>
+  <si>
+    <t>376 validated new mothers (36,948 posts prenatal, 40,426 post-natal)</t>
+  </si>
+  <si>
+    <t>Use newspaper birth announcements to construct lexicon of n-grams likely to indicate birth; name-based sex inference identifies females; Mturkers shown +- 5 posts around possible announcement to verify new-mother status (5 ratings per candidate mother); multiple binary classification tasks based on extreme change for 33 behavioral measures (threshold selected per measure)</t>
+  </si>
+  <si>
+    <t>CES-D Survey on M-Turk + self-reported experience with depression; user-groups based on extreme values (low + high) of CES-D; user-level labels propagated to post-level labels</t>
+  </si>
+  <si>
+    <t>Depression (117 users, 23,984 users); Control (157 users, 45,530 posts)</t>
+  </si>
+  <si>
+    <t>Homan, Johar, Liu, Lytle, Silenzio, Alm</t>
+  </si>
+  <si>
+    <t>Distress Level</t>
+  </si>
+  <si>
+    <t>2000 tweets</t>
+  </si>
+  <si>
+    <t>Start with corpus of 2.5 million tweets (Sadilek et al. (2012)) from 6,237 users in New York City; Sampled 1,370 teets from 2000 with highest LIWC "sad" score and an additional disjoint 630 tweets matching suicide-risk-factor keywords; half tweets annotated by novice and half tweets annotated by counseling psychologist with 4 labels (Happy, No distress, low distress, high distress) based on +- 3 tweets around match</t>
+  </si>
+  <si>
+    <t>Loveys, Crutchley, Wyatt, Coppersmith</t>
+  </si>
+  <si>
+    <t>Suicide Attempt, Schizophrenia, Panic, Eating, Anxiety</t>
+  </si>
+  <si>
+    <t>Anxiety (2,408 users), eating disorder (749 users), panic attacks (263 users), schizophrenia (350 users), and suicide attempt (424 users)</t>
+  </si>
+  <si>
+    <t>Self-dislosed diagnosis statements and manual verification; control group contains age- and gender-matched controls; Same as "Multi-Task Learning" (Benton et al.) dataset, with filtering down to users who post multiple times within a 3-hour window</t>
+  </si>
+  <si>
+    <t>McManus, Mallory, Goldfelder, Haynes, Tatum</t>
+  </si>
+  <si>
+    <t>Not a peer-reviewed study</t>
+  </si>
+  <si>
+    <t>Schizophrenia identified if 2+ conditions hold: self-disclose diagnosis in user description, self-disclose in status update, follows @schizotribe; control set sampled from 1% random stream and age-matched (manually)</t>
+  </si>
+  <si>
+    <t>Schizophrenia (96 users), Control (200 users)</t>
+  </si>
+  <si>
+    <t>Mitchell, Hollingshead, Coppersmith</t>
+  </si>
+  <si>
+    <t>Self-disclosed statements identified using regular expressions; each disclosure manually-verified by one of the authors; age- and gender- matched control group sampled from 1% random stream</t>
+  </si>
+  <si>
+    <t>Schizophrenia (174 users), Control (174 users)</t>
+  </si>
+  <si>
+    <t>Prieto, Matos, Alvarez, Cacheda, Oliveira</t>
+  </si>
+  <si>
+    <t>Depression, Eating Disorders</t>
+  </si>
+  <si>
+    <t>Spanish and Portuguese regular expressions to identify tweets likely to contain each disease; tweets were manually annotated as positive (content indicates user has disease), negative (content indicates user does not have disease), or undecide (neither) performed by 2 medical doctors and three engineers</t>
+  </si>
+  <si>
+    <t>Depression (Spanish: 3,253 tweets [160 positive], Portuguese: 2,846 [120 positive] tweets); Eating Disorders (Spanish: 412 [111 positive] tweets, Portuguese: 468 [87 positive] tweets)</t>
+  </si>
+  <si>
+    <t>Spanish, Portuguese language from Spain and Portugal, respectively</t>
+  </si>
+  <si>
+    <t>Resnik, Armstrong, Claudino, Nguyen, Nguyen, Boyd-Graber</t>
+  </si>
+  <si>
+    <t>CLPsych 2015 Shared Task Data (e.g. regex for self-disclosed diagnoses); Pennebaker and King (1999) steam-of-consciousness essays where students write down their thoughts, sensations, and feelings as they come to them</t>
+  </si>
+  <si>
+    <t>CLPsych Data (~600 depression + ~600 age+gender matched controls); Steam-of-conciousness essays (6,459 individuals)</t>
+  </si>
+  <si>
+    <t>Leverage existing CLPsych 2015 dataset for depression classification</t>
+  </si>
+  <si>
+    <t>Saha, Chan, Barbaro, Abowd, De Choudhury</t>
+  </si>
+  <si>
+    <t>Mood Instability, Bipolar Disorder, Borderline Personality Disorder</t>
+  </si>
+  <si>
+    <t>Twitter, Facebook, Ecological Momentary Assessments</t>
+  </si>
+  <si>
+    <t>CL: CampusLife Study at Georgia Tech</t>
+  </si>
+  <si>
+    <t>EMA (51 participants, 1,606 responses), Facebook CL Study (23 participants, 13,340 status updates), Twitter CL (10 participants, 1425 tweets); Twitter Bipolar (6,326 users, 14M tweets); Twitter Borderline (3,238 users 7M tweets); Twitter Control (9,394 users, 15M tweets)</t>
+  </si>
+  <si>
+    <t>Mood and Valence captured using Photographic Affect Meter in EMAs; Particpants took a bettery of validated questionairres (Perceived Stress Sclae, Depression Anxiety and Stress Scale, Flourishing Scale) at start of study; Supplemental Twitter data labeled using regular expression disclosures with manual verification of authenticity</t>
+  </si>
+  <si>
+    <t>Saravia, Chang, Jollet De Lorenzo, Chen</t>
+  </si>
+  <si>
+    <t>Borderline Personality Disorder, Bipolar Disorder</t>
+  </si>
+  <si>
+    <t>Bipolar Disorder (278 users), Borderline Personality Disorder (203 users), Control (548 users)</t>
+  </si>
+  <si>
+    <t>Identify candidate users using followers of popular Borderline Personality and Bipolar Disorder accounts, Regular expressions against Twitter profiles to identify Borderline and Bipolar Disorders; random users sampled in equal quantity to form control group</t>
+  </si>
+  <si>
+    <t>Seabrook, Kern, Fulcher, Rickard</t>
+  </si>
+  <si>
+    <t>Facebook, Twitter</t>
+  </si>
+  <si>
+    <t>Participants took PHQ-9 within mobile app MoodPrism</t>
+  </si>
+  <si>
+    <t>Facebook (538 status updates, 29 users), Twitter (1,318 posts, 49 users)</t>
+  </si>
+  <si>
+    <t>Tsugawa, Mogi, Kikuchi, Kishino, Fujita, Itoh, Ohsaki</t>
+  </si>
+  <si>
+    <t>Zung's Self-rating Depression Scale used to evaluate level of depression in each individual</t>
+  </si>
+  <si>
+    <t>50 participants</t>
+  </si>
+  <si>
+    <t>Vedula, Parthasarathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depression users indentified using small set of relevant keywords and explict reporting of taking anti-depression medication; Control group consists of random sample of users in the United States </t>
+  </si>
+  <si>
+    <t>Depression (50 users); Control (100 users)</t>
+  </si>
+  <si>
+    <t>Wang, Brede, Ianni, Mentzakis</t>
+  </si>
+  <si>
+    <t>Use regular expressions (eating-disorder related keywords) within profiles to identify candidates and further require that profiles contain biological information; snowball-sampling followers of original candidates used to expand set; manual labeling of 1000 samples to quantify precision of labeling process; 2 control groups sampled (1 randomly and 1 based on followers of popular music artists with name-inferred female sex)</t>
+  </si>
+  <si>
+    <t>Eating disorder (3,380 users), Random Control (30,684 users), Young + Female Control (37,983 users)</t>
+  </si>
+  <si>
+    <t>Nakamura, Kubo, Usuda, Aramaki</t>
+  </si>
+  <si>
+    <t>TOBYO Toshoshitsu (Disease Survivor Blogs)</t>
+  </si>
+  <si>
+    <t>Blog articles classified by symptoms (e.g. depression, breast cancer); Depression group randomly selected based on depression tag, non-depression selected randomly amongst remaining group</t>
+  </si>
+  <si>
+    <t>Depression (100 authors), Non-Depression (100 authors)</t>
+  </si>
+  <si>
+    <t>Nguyen, Phung, Dao, Venkatesh, Berk</t>
+  </si>
+  <si>
+    <t>LifeJournal</t>
+  </si>
+  <si>
+    <t>Depression, Self-Harm, Suicide, Bipolar Disorder, Grief</t>
+  </si>
+  <si>
+    <t>Identified mental-health communities (e.g. adult_bipolar, alonedepressed) and general communities (e.g. curlyhair, cat_lovers) to serve as comparison groups CLINICAL vs. CONTROL</t>
+  </si>
+  <si>
+    <t>Clinical (38,401 posts from 24 communities), Control (229,563 posts from 23 communities)</t>
+  </si>
+  <si>
+    <t>Wang, Tang, Li, Li, Wan, Mellina, O'Hare, Chang</t>
+  </si>
+  <si>
+    <t>Flickr</t>
+  </si>
+  <si>
+    <t>Use "selfharm" and "selfinjury" tags to seed search of Flickr for additional high-precision relevant tags; identify 15 additional tags to identify additional candidates; remove users in candidate pool who use self-harm tags in less than 5 posts; control group sampled from YFCC dataset and confirmed not to use any self-har tags; researchers manually verified subset of self-harm posts</t>
+  </si>
+  <si>
+    <t>Self-harm (20,495 users, 93,286 posts), Control (19,720 users, 93,286 randomly sampled posts)</t>
+  </si>
+  <si>
+    <t>Shen, Kuo, Chen, Lin</t>
+  </si>
+  <si>
+    <t>PTT (Bulletin Board System)</t>
+  </si>
+  <si>
+    <t>Users of the "Prozac" message board labeled as depressed, while those on the "Sad" message board labeled as having ordinary sadness; Also look at two happiness message boards "gossipping" and "happy" to represent messages with non-negative emotions</t>
+  </si>
+  <si>
+    <t>Gossiping (1,699 users, 6,505 posts), Happy (2,695 users, 11,209 posts), Prozac (1,027 users, 6,015 posts), Sad (1,652 users, 4,900 posts)</t>
+  </si>
+  <si>
+    <t>Chinese Language</t>
+  </si>
+  <si>
+    <t>Masuda, Kurahashi, Onari</t>
+  </si>
+  <si>
+    <t>Mixi</t>
+  </si>
+  <si>
+    <t>Suicide (9,990 users), Depression (24,410 users), Control Group (228,949 users)</t>
+  </si>
+  <si>
+    <t>Users of 4 suicide-related forums and 10 depression-related forums on the platform considered as part of the "suicide" and depression groups respectively group, while users who did not participate in the forums but were active were considered "control"</t>
+  </si>
+  <si>
+    <t>Lin, Jia, Nie, Shen, Chua</t>
+  </si>
+  <si>
+    <t>http://stressmeasure.droppages.com</t>
+  </si>
+  <si>
+    <t>Stress (Stressor and Stress Subject)</t>
+  </si>
+  <si>
+    <t>Used word-embeddings to identify terms likely to represent stressors and stress subects; manually annotated 2,000 posts with stressor and subject and an additional 600 posts considered as non-stress related</t>
+  </si>
+  <si>
+    <t>Wang, Zhang, Sun</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Users detected by group of psychologists with traditional diagnosis criteria through questionairres and surveys</t>
+  </si>
+  <si>
+    <t>Stress (2,000 posts), Control (600 posts)</t>
+  </si>
+  <si>
+    <t>Depression (90 users), Non-depression (90 users)</t>
+  </si>
+  <si>
+    <t>Data comes from "A depression detection model based on sentiment analysis in micro-blog social network"; Chinese language only</t>
+  </si>
+  <si>
+    <t>Matero, Idnani, Son, Giorgi, Vu, Zamani, Limbachiya, Guntuku, Schwartz</t>
+  </si>
+  <si>
+    <t>CLPsych 2019 dataset</t>
+  </si>
+  <si>
+    <t>Upton Patton, MacBeth, Schoenebeck, Shear, McKeown</t>
+  </si>
+  <si>
+    <t>Grief, Aggression</t>
+  </si>
+  <si>
+    <t>Queried 2000 tweets, retweets, and mentions of @TyquanAssassin; manually filtered out tweets that did not specifically reference 2 associated deaths of the case study; manual coding of all remaining tweets</t>
+  </si>
+  <si>
+    <t>General (718 tweets)</t>
+  </si>
+  <si>
+    <t>Yan, Fitzsimmons-Craft, Goodman, Krauss, Das, Cavazos-Rehg</t>
+  </si>
+  <si>
+    <t>Sample 53 posts from eating disorder subreddits for manual binary annotation (postive for immense risk, negative otherwise); 6,000 additional posts sampled as being the "hottest" submissions on EatingDisorders, BingeEatingDisorder, eating_disorders, bulimia, proED, and fuckeatingdisorders; Coders manually evaluated top 50 (114 unique) most likely risky posts as labeled by 5 classifiers</t>
+  </si>
+  <si>
+    <t>Positive (38 posts), Negative (15 posts), Unlabeled (6,000)</t>
+  </si>
+  <si>
+    <t>Van Hee, Jacobs, Emmery, Desmet, Lefever, Verhoeven, De Pauw, Daelemans, Hoste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osf.io/rgqw8/ </t>
+  </si>
+  <si>
+    <t>AskFM</t>
+  </si>
+  <si>
+    <t>Annotators were provided detailed schematic for labelling; 2-levels (relation to cyberbulling and then type of cyberbullying); 7-types of cyclber bullying</t>
+  </si>
+  <si>
+    <t>English (113,698 posts [5,375 cyberbulling]), Dutch (78,387 posts, [5,106 cyberbullying])</t>
+  </si>
+  <si>
+    <t>Kumar, Ojha, Malmasi, Zampieri</t>
+  </si>
+  <si>
+    <t>Aggression</t>
+  </si>
+  <si>
+    <t>All comments manually labeled with 3-levels of aggression: overtly aggressive, covertly aggressive, and non-aggressive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trac1-dataset.kmiagra.org/ </t>
+  </si>
+  <si>
+    <t>Facebook (15,000 comments), Twitter (1,257 English + 1,194 Hindi Tweets)</t>
+  </si>
+  <si>
+    <t>Subset of Kumar et al. (2018b); English + Hindi versions</t>
+  </si>
+  <si>
+    <t>Tadesse, Lin, Xu, Yang</t>
+  </si>
+  <si>
+    <t>Depression (1,293 posts), Non-depression (548 posts)</t>
+  </si>
+  <si>
+    <t>Leverages data from Pirina et al. (2018)</t>
+  </si>
+  <si>
+    <t>Vioulès, Moulahi, Azé, Bringay</t>
+  </si>
+  <si>
+    <t>Query Twitter straming API using keywords from APA's list of risk factors and AAS's list of warning signs related to suicide; identify 60 distressed users amongst sample that frequently discuss depression, suicide, and self-mutilation (in addition to 60 other random users); remove 500/5,446 tweets for manual labeling (no distress, minimal distress, moderate distress, severe distress)</t>
+  </si>
+  <si>
+    <t>Depression (60 users, 2,381 tweets), Non-depression (60 users, 3,065 tweets)</t>
+  </si>
+  <si>
+    <t>Trifan, Luís Oliveira</t>
+  </si>
+  <si>
+    <t>Anorexia, Depression</t>
+  </si>
+  <si>
+    <t>eRISK 2017: CLEF Lab on Early Risk Prediction on the Internet: Experimental Foundation</t>
+  </si>
+  <si>
+    <t>Task 1 (Anorexia): Regular-expressions identify diagnosis disclosure; Task 2 (Depression): RSDD Dataset, regular expressions; Task 3 (Level of Depression): Beck's Depression Inventory Questionnaire BDI</t>
+  </si>
+  <si>
+    <t>Task 1: Anorexia (61 users, 24,874 posts), Non-anorexia (411 users, 228,878 posts); Task 2: Depression (9,210 users), Non-depression (107,274 users); Task 3: Level of Depression (20 users)</t>
+  </si>
+  <si>
+    <t>Task 1 comes from eRisk 2018, Task 2 comes from RSDD (Georgetown), Task 3 is new data</t>
+  </si>
+  <si>
+    <t>Overview of eRisk: Early Risk Prediction on the Internet</t>
+  </si>
+  <si>
+    <t>Losada, Crestani, Parapar</t>
+  </si>
+  <si>
+    <t>Depression, Anxorexia</t>
+  </si>
+  <si>
+    <t>Regular expressions used to identify individuals wih diagnosis; control groups include users who often post about the disorder but do not have it (e.g. support a peer or family member)</t>
+  </si>
+  <si>
+    <t>Task 1: Depression (214 users, 90,222 posts), Control (831 users, 0.9M posts); Task 2: Anorexia (61 users, 24,874 posts); Control (411 users, 228,878 posts)</t>
+  </si>
+  <si>
+    <t>https://tec.citius.usc.es/ir/pdf/eRisk2018LNCS.pdf</t>
+  </si>
+  <si>
+    <t>Depression (135 users, 49,557 posts); Control (752 users, 481,337 posts)</t>
+  </si>
+  <si>
+    <t>Dataset originally proposed in Losada et al. (2016) "A test collection for research on depression and language use"</t>
+  </si>
+  <si>
+    <t>Lachmar, Wittenborn, Bogen, McCauley</t>
+  </si>
+  <si>
+    <t>1,978 tweets</t>
+  </si>
+  <si>
+    <t>Identified tweets using the #MyDepressionLooksLike hashtag; filter down to original tweets from human authors (e.g. no PSAs or spam); each tweet manually coded by 2 annotators for theme (Dysfunctional thoughts, Lifestyle challenges, social struggles, hiding behind a mask, apathy and sadness, and relief seeking)</t>
+  </si>
+  <si>
+    <t>Singh, Du, Zhang, Wang, Miao, Sianaki, Ulhaq</t>
+  </si>
+  <si>
+    <t>Antisocial Behavior</t>
+  </si>
+  <si>
+    <t>Search for tweets using phrases e.g. "I do not care about the law", "I wish you die soon", and "Go to hell"; Manually annotated all tweets as conveying antisocial behavior or not; psychology graduate student verified annotations</t>
+  </si>
+  <si>
+    <t>55,810 tweets</t>
+  </si>
+  <si>
+    <t>Data from OurDataHelps.org (social media data + history of mental health); regular-expressions to identify past suicide attempts + manual verification; age- and gender- matched controls</t>
+  </si>
+  <si>
+    <t>Suicide Attempt (418 users, 197,615 posts), Controls (418 users, 197,615 posts)</t>
+  </si>
+  <si>
+    <t>Sekulic ́, Gjurković, Šnajder</t>
+  </si>
+  <si>
+    <t>Bipolar Disorder</t>
+  </si>
+  <si>
+    <t>Bipolar Disorder, Depression, PTSD, Seasonal Affective Disorder (SAD)</t>
+  </si>
+  <si>
+    <t>ADHD, Anxiety, Autism, Bipolar Disorder, Depression, Eating Disorder, Obsessive Compulsive Disorder, PTSD, Schizophrenia</t>
+  </si>
+  <si>
+    <t>ADHD, Anxiety, Bipolar Disorder, Borderline Personality Disorder, Depression, Eating, OCD, PTSD, Schizophrenia, Seasonal Affective Disorder</t>
+  </si>
+  <si>
+    <t>Regular expressions and flair within bipolar disorder subreddits; control groups sampled from over-indexing subreddits (non-bipolar); filter out users with less than 1000 words; filter out posts mentioning bipolar disorder</t>
+  </si>
+  <si>
+    <t>Bipolar Disorder (3,488 users); Control (3,931 users)</t>
+  </si>
+  <si>
+    <t>Park, McDonald, Cha</t>
+  </si>
+  <si>
+    <t>CES-D identified individuals with depression; interviews of participants coded manually by authors for qualitative analysis</t>
+  </si>
+  <si>
+    <t>Depression (7 participants), Non-depression (7 participants)</t>
+  </si>
+  <si>
+    <t>Sarioglu Kayi, Diab, Pauselli, Compton, Coppersmith</t>
+  </si>
+  <si>
+    <t>Twitter, Essays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essays come from patients with diagnosed Schizophrenia (and health controls); Twitter data comes from users with self-disclosed diagnoses (e.g. regular-expressions) and age- and gender-matched controls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essays: Schizophrenia (93 patients), Control (95 patients); Twitter: Schizophrenia (174 users), Control (174 users) </t>
+  </si>
+  <si>
+    <t>Mohammadi, Amini, Kosseim</t>
+  </si>
+  <si>
+    <t>Anorexia</t>
+  </si>
+  <si>
+    <t>Regular-expressions identify diagnosis disclosure; controls mentioned anorexia or participated in discussion but did not have diagnosis</t>
+  </si>
+  <si>
+    <t>Anorexia (61 users, 24,874 posts), Non-anorexia (411 users, 228,878 posts)</t>
+  </si>
+  <si>
+    <t>eRisk 2019 Dataset</t>
+  </si>
+  <si>
+    <t>Hossein Yazdavar, Al-Olimat, Ebrahimi, Bajaj, Banerjee, Thirunarayan, Pathak, Sheth</t>
+  </si>
+  <si>
+    <t>Regular-expression matching against Twitter user profiles (phrases highly indicative of disease); filter out users with less than 100 tweets (no manual verification of authenticity)</t>
+  </si>
+  <si>
+    <t>Depression (2,000 users), Control (2,000 users)</t>
+  </si>
+  <si>
+    <t>Franz, Nook, Mair, Nock</t>
+  </si>
+  <si>
+    <t>TeenHelp.org (Forum)</t>
+  </si>
+  <si>
+    <t>Collect top-level posts from "Self-harm", Depression and Suicide", and "Friends and Family" subforums; restrict to users with self-identified age under 25 and gender being male or female; human annotators (3) coded each of posts based on 11 topics</t>
+  </si>
+  <si>
+    <t>2,359 posts</t>
+  </si>
+  <si>
+    <t>Mowery, Smith, Cheney, Stoddard, Coppersmith, Bryan, Conway</t>
+  </si>
+  <si>
+    <t>Depression (Symptoms)</t>
+  </si>
+  <si>
+    <t>Leverage annotation schema from prior work to label each tweet with symptomology + relevance to depression</t>
+  </si>
+  <si>
+    <t>9,300 tweets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builds upon Mowery et al. 2016 </t>
+  </si>
+  <si>
+    <t>Gaur, Kursuncu, Alambo, Sheth, Daniulaityle, Thirunaryan, Pathak</t>
+  </si>
+  <si>
+    <t>From Gkotsis et al. (2016)</t>
+  </si>
+  <si>
+    <t>Kang, Yoon, Yi Kim</t>
+  </si>
+  <si>
+    <t>45 individuals</t>
+  </si>
+  <si>
+    <t>Xu, Pérez-Rosas, Mihalcea</t>
+  </si>
+  <si>
+    <t>Mental Health (General)</t>
+  </si>
+  <si>
+    <t>Tag-based proxy labelling</t>
+  </si>
+  <si>
+    <t>Mental Illness (770 users, 14,781 posts); Pre-mental Illness (658 users, 11,828 posts); Health Users (15,000 users, 15,000 posts)</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/115/44/11203?utm_source=yxnews&amp;utm_medium=mobile</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8419355</t>
+  </si>
+  <si>
+    <t>Instagram photos reveal predictive markers of depression</t>
+  </si>
+  <si>
+    <t>https://epjdatascience.springeropen.com/articles/10.1140/epjds/s13688-017-0110-z</t>
+  </si>
+  <si>
+    <t>https://www.jmir.org/2018/12/e11817/</t>
+  </si>
+  <si>
+    <t>Predicting Multiple Risky Behaviors via Multimedia Content</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-319-67256-4_7</t>
+  </si>
+  <si>
+    <t>Triaging content severity in online mental health forums</t>
+  </si>
+  <si>
+    <t>Helping or hurting? predicting changes in users’ risk of self-harm through online community interactions</t>
+  </si>
+  <si>
+    <t>https://asistdl.onlinelibrary.wiley.com/doi/full/10.1002/asi.23865</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1804.07253</t>
+  </si>
+  <si>
+    <t>https://www.jmir.org/2018/6/e215/</t>
+  </si>
+  <si>
+    <t>Norms matter: contrasting social support around behavior change in online weight loss communities</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3173574.3174240</t>
+  </si>
+  <si>
+    <t>Measuring the impact of anxiety on online social interactions</t>
+  </si>
+  <si>
+    <t>http://www.munmund.net/pubs/Anxiety_SocialInt_ICWSM18.pdf</t>
+  </si>
+  <si>
+    <t>Characterisation of mental health conditions in social media using Informed Deep Learning</t>
+  </si>
+  <si>
+    <t>Within and between-person differences in language used across anxiety support and neutral reddit communities</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/srep45141</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W18-0620/</t>
+  </si>
+  <si>
+    <t>Hierarchical neural model with attention mechanisms for the classification of social media text related to mental health</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W18-0607/</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W18-5903/</t>
+  </si>
+  <si>
+    <t>Identifying depression on reddit: The effect of training data</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3159652.3159725</t>
+  </si>
+  <si>
+    <t>Modeling Stress with Social Media Around Incidents of Gun Violence on College Campuses</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3134727</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W17-3107/</t>
+  </si>
+  <si>
+    <t>https://www.jmir.org/2017/7/e243/</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/Y15-1064/</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/2647868.2654945</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/6890213</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/7885098</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-642-40319-4_18</t>
+  </si>
+  <si>
+    <t>https://eprints.soton.ac.uk/423226/</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-319-25261-2_3</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/2858036.2858246</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/2750511.2750515</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8031202</t>
+  </si>
+  <si>
+    <t>https://www.jmir.org/2017/8/e289/</t>
+  </si>
+  <si>
+    <t>https://mental.jmir.org/2016/2/e21/?utm_source=TrendMD&amp;utm_medium=cpc&amp;utm_campaign=JMIR_TrendMD_1</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/2700171.2791023</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/2470654.2466447</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/2464464.2464480</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W14-3213/</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W17-3110/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4525233/</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W15-1202/</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0086191</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W15-1212/</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3130960</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/7752434</t>
+  </si>
+  <si>
+    <t>https://www.jmir.org/2018/5/e168/</t>
+  </si>
+  <si>
+    <t>https://nextcenter.org/wp-content/uploads/2018/02/Depression-Detection-via-Harvesting-Social-Media-A-Multimodal-Dictionary-Learning-Solution.pdf</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/6549431</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3079452.3079465</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3018661.3018706</t>
+  </si>
+  <si>
+    <t>https://www.aaai.org/ocs/index.php/SSS/SSS14/paper/viewFile/7744/7782</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/6784326</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3038912.3052555</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-642-37453-1_23</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0062262</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3290605.3300364</t>
+  </si>
+  <si>
+    <t>https://hcsi.cs.tsinghua.edu.cn/Paper/Paper16/IJCAI-linhuijie.pdf</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/6753906</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W19-3005/</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/full/10.1177/1178222618763155</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1002/eat.23148</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0203794</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/W18-4401/</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8681445</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/8269767</t>
+  </si>
+  <si>
+    <t>http://ceur-ws.org/Vol-2380/paper_66.pdf</t>
+  </si>
+  <si>
+    <t>https://mental.jmir.org/2017/4/e43/</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-030-22354-0_43</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/full/10.1177/1178222618792860</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1811.04655</t>
+  </si>
+  <si>
+    <t>https://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.941.6087&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1810.09377</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3110025.3123028</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1111/sltb.12569</t>
+  </si>
+  <si>
+    <t>https://www.jmir.org/2017/2/e48/</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/3269206.3271732</t>
+  </si>
+  <si>
+    <t>https://info.computer.org/csdl/proceedings-article/bigcomp/2016/07425918/12OmNAkEU5D</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/2020.lrec-1.772/</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-319-65813-1_30</t>
   </si>
 </sst>
 </file>
@@ -1685,15 +3049,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="30.83203125" style="1"/>
+    <col min="1" max="1" width="34.1640625" style="1" customWidth="1"/>
+    <col min="2" max="10" width="30.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="30.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1774,27 +3141,27 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>747</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="323" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>2015</v>
@@ -1803,79 +3170,79 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>749</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>2019</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>2014</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <v>2017</v>
@@ -1884,50 +3251,50 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
         <v>2018</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1">
         <v>2012</v>
@@ -1936,27 +3303,27 @@
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1">
         <v>2013</v>
@@ -1965,53 +3332,53 @@
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1">
         <v>2014</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1">
         <v>2015</v>
@@ -2020,27 +3387,27 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1">
         <v>2016</v>
@@ -2049,27 +3416,27 @@
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1">
         <v>2014</v>
@@ -2078,27 +3445,27 @@
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>2015</v>
@@ -2107,27 +3474,27 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1">
         <v>2016</v>
@@ -2136,27 +3503,27 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1">
         <v>2017</v>
@@ -2177,128 +3544,128 @@
         <v>17</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1">
         <v>2016</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1">
         <v>2016</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="1">
         <v>2017</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1">
         <v>2016</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1">
         <v>2015</v>
@@ -2307,85 +3674,85 @@
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" s="1">
         <v>2013</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C24" s="1">
         <v>2018</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C25" s="1">
         <v>2017</v>
@@ -2394,85 +3761,85 @@
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C26" s="1">
         <v>2018</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C27" s="1">
         <v>2015</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C28" s="1">
         <v>2017</v>
@@ -2493,273 +3860,273 @@
         <v>17</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C29" s="1">
         <v>2018</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C30" s="1">
         <v>2019</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="K30" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C31" s="1">
         <v>2014</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C32" s="1">
         <v>2016</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C33" s="1">
         <v>2018</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C34" s="1">
         <v>2019</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="289" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C35" s="1">
         <v>2018</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C36" s="1">
         <v>2018</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C37" s="1">
         <v>2017</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C38" s="1">
         <v>2017</v>
@@ -2768,53 +4135,53 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C39" s="1">
         <v>2019</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C40" s="1">
         <v>2016</v>
@@ -2823,56 +4190,56 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C41" s="1">
         <v>2019</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C42" s="1">
         <v>2015</v>
@@ -2881,91 +4248,91 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C43" s="1">
         <v>2018</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>254</v>
+        <v>748</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C44" s="1">
         <v>2018</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C45" s="1">
         <v>2015</v>
@@ -2974,230 +4341,230 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C46" s="1">
         <v>2019</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C47" s="1">
         <v>2015</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C48" s="1">
         <v>2014</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C49" s="1">
         <v>2015</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C50" s="1">
         <v>2014</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C51" s="1">
         <v>2019</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>303</v>
+        <v>547</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C52" s="1">
         <v>2017</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C53" s="1">
         <v>2019</v>
@@ -3218,105 +4585,105 @@
         <v>17</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C54" s="1">
         <v>2017</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C55" s="1">
         <v>2018</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C56" s="1">
         <v>2016</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C57" s="1">
         <v>2019</v>
@@ -3325,143 +4692,143 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C58" s="1">
         <v>2019</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C59" s="1">
         <v>2017</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C60" s="1">
         <v>2015</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C61" s="1">
         <v>2019</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C62" s="1">
         <v>2019</v>
@@ -3482,128 +4849,128 @@
         <v>17</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C63" s="1">
         <v>2019</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C64" s="1">
         <v>2019</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C65" s="1">
         <v>2019</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C66" s="1">
         <v>2019</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C67" s="1">
         <v>2017</v>
@@ -3612,24 +4979,24 @@
         <v>13</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C68" s="1">
         <v>2013</v>
@@ -3638,30 +5005,30 @@
         <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C69" s="1">
         <v>2018</v>
@@ -3670,56 +5037,56 @@
         <v>13</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C70" s="1">
         <v>2018</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C71" s="1">
         <v>2018</v>
@@ -3728,27 +5095,27 @@
         <v>13</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C72" s="1">
         <v>2017</v>
@@ -3757,16 +5124,2213 @@
         <v>13</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K72" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>416</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="221" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K86" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="187" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="238" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="221" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="272" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="221" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="238" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="K109" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="187" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="238" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="238" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="221" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="221" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C149" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>733</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kharrigian/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C160EC-E6B8-5540-B6E1-5977EBEF5FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9648A173-6046-4440-823E-C325BD657300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21740" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="823">
   <si>
     <t>Paper</t>
   </si>
@@ -365,9 +365,6 @@
     <t>Reddit</t>
   </si>
   <si>
-    <t>Anxiety, Borderline Personality, Bipolar, Opiate Addiction, Self Hard, Addiction, Aspergers, Autism, Alcoholism, Opiate Usage, Schizophrenia, Self-hard, Suicidal Ideation</t>
-  </si>
-  <si>
     <t>Subreddit participation</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>Bagroy, Kumaraguru, De Choudhury</t>
   </si>
   <si>
-    <t>14 mental-health related subreddits +  small set of control subreddits (e.g. r/AskReddit)</t>
-  </si>
-  <si>
     <t>Subreddit participation (inductive transfer learning applied to users outside the original subreddits)</t>
   </si>
   <si>
@@ -488,9 +482,6 @@
     <t>Neuroatypicality, Suicide Attempt, Anxiety, Depression, Eating Disorder, Panic Attacks, Schizophrenia, Bipolar Disorder, PTSD</t>
   </si>
   <si>
-    <t>Regular-expressions; age+gender matched controls</t>
-  </si>
-  <si>
     <t>9,611 individuals with an average 3,521 tweets per individual</t>
   </si>
   <si>
@@ -554,9 +545,6 @@
     <t>SMS</t>
   </si>
   <si>
-    <t>Periods of Suicide Attempts, Suicidal Ideation, Depressive Episodes, and Positive Mood</t>
-  </si>
-  <si>
     <t>Self-identification during in-person interview</t>
   </si>
   <si>
@@ -578,22 +566,7 @@
     <t>https://www.jmir.org/2019/1/e11507/</t>
   </si>
   <si>
-    <t>The Distress Analysis Interview Corpus of Human and Computer Interviews</t>
-  </si>
-  <si>
-    <t>Gratch, Artstein, Lucas, Stratou, Scherer, Nazarian, Wood, Boberg, DeVault, Marsella, Traum, Rizzo, Morency</t>
-  </si>
-  <si>
-    <t>Counselor Interview</t>
-  </si>
-  <si>
     <t>PHQ-8 survey</t>
-  </si>
-  <si>
-    <t>120 Face to Face interviews, 45 Teleconference interviews, 193 Wizard of Oz interviews, 263 Automated Agent interviews (each has a subset transcribed)</t>
-  </si>
-  <si>
-    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.495.3966&amp;rep=rep1&amp;type=pdf</t>
   </si>
   <si>
     <t>CLPsych 2016 Shared Task: Triaging Content in Online Peer Support Forums</t>
@@ -868,24 +841,6 @@
     <t>https://www.aclweb.org/anthology/W15-1211/</t>
   </si>
   <si>
-    <t>Automatically Generating Pschiatric Case Note From Digital Transcripts of Doctor-Patient Conversations</t>
-  </si>
-  <si>
-    <t>Kazi, Kahanda</t>
-  </si>
-  <si>
-    <t>EHR Categories: Client Details, Chief Complaint, Family History, Social History, Medical History, Other</t>
-  </si>
-  <si>
-    <t>18 Doctor-patient Transcripts (13 synthetic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://search.alexanderstreet.com/health- sciences/counseling-therapy </t>
-  </si>
-  <si>
-    <t>https://www.aclweb.org/anthology/W19-1918/</t>
-  </si>
-  <si>
     <t>Detecting Changes in Suicide Content Manifested in Social Media Following Celebrity Suicides</t>
   </si>
   <si>
@@ -934,31 +889,7 @@
     <t>https://arxiv.org/abs/1411.0778</t>
   </si>
   <si>
-    <t>Distinguishing Clinical Sentiment: The Importance of Domain Adaptation in Psychiatric Patient Health Records</t>
-  </si>
-  <si>
-    <t>Holderness, Cawkwell, Bolton, Pustejovsky, Hall</t>
-  </si>
-  <si>
-    <t>EHR</t>
-  </si>
-  <si>
-    <t>EHR Categories: Appearance, Mood, Interpersonal, Substance Use, Occupation, Thought Content, Thought Process</t>
-  </si>
-  <si>
-    <t>Manual Annotation (see Holderness et al., 2018)</t>
-  </si>
-  <si>
-    <t>4,500 Sentences</t>
-  </si>
-  <si>
-    <t>https://www.aclweb.org/anthology/W19-1915/</t>
-  </si>
-  <si>
     <t>De Choudury, Kiciman</t>
-  </si>
-  <si>
-    <t>Subreddit Participation; classes distinguished based on timeperiod of posting and movement between r/SuicideWatch and other mental-health subreddits</t>
   </si>
   <si>
     <t>909 individuals</t>
@@ -989,25 +920,6 @@
     <t>https://www.aclweb.org/anthology/W19-3013/</t>
   </si>
   <si>
-    <t>Natural language processing to extract symptoms of severe mental illness from clinical text: the Clinical Record Interactive Search Comprehensive Data Extraction (CRIS-CODE) project</t>
-  </si>
-  <si>
-    <t>Jackson, Patel, Jayatilleke, Kolliakou, Ball, Gorrell, Roberts, Dobson, Stewart</t>
-  </si>
-  <si>
-    <t>Psychiatric concepts</t>
-  </si>
-  <si>
-    <t>Regular expressions; manual verification for 15 of the concepts; 50 concepts total</t>
-  </si>
-  <si>
-    <t>37,211 instances (training)
-2,950 instances (testing)</t>
-  </si>
-  <si>
-    <t>https://bmjopen.bmj.com/content/7/1/e012012</t>
-  </si>
-  <si>
     <t>Feature Attention Network: Interpretable Depression Detection from Social Media</t>
   </si>
   <si>
@@ -1071,49 +983,6 @@
     <t>User Dynamics in Mental Health Forums -- A Sentiment Analysis Perspective</t>
   </si>
   <si>
-    <t>Using Automated Metaphor Identification to Aid in Detection and Prediction of First-Episode Schizophrenia</t>
-  </si>
-  <si>
-    <t>Guitiérrez, Corlett, Corcoran, Cecchi</t>
-  </si>
-  <si>
-    <t>Patient Interviews (First-episode Schizophrenia and Prodomal Syndromes)</t>
-  </si>
-  <si>
-    <t>First-episode: 17 patients and 15 healthy controls
-Prodomal Psychosis: 34 individuals at clinical high risk for psychosis</t>
-  </si>
-  <si>
-    <t>https://www.aclweb.org/anthology/D17-1316/</t>
-  </si>
-  <si>
-    <t>Automated analysis of free speech predicts psychosis onset in high-risk youth</t>
-  </si>
-  <si>
-    <t>Bedi, Carrillo, Cecchi, Fernández Slezak, Sigman, Mota, Ribeiro, Javitt, Copelli, Corcoran</t>
-  </si>
-  <si>
-    <t>Patient Interviews</t>
-  </si>
-  <si>
-    <t>Schizophrenhia, Psychosis</t>
-  </si>
-  <si>
-    <t>Psychosis</t>
-  </si>
-  <si>
-    <t>Schizophrenia, Psychosis Diagnoses</t>
-  </si>
-  <si>
-    <t>Psychosis Diagnoses</t>
-  </si>
-  <si>
-    <t>34 individuals at clinical high risk for psychosis</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/npjschz201530</t>
-  </si>
-  <si>
     <t>Adapting Deep Learning Methods for Mental Health Prediction on Social Media</t>
   </si>
   <si>
@@ -1132,24 +1001,6 @@
     <t>https://www.aclweb.org/anthology/D19-6208/</t>
   </si>
   <si>
-    <t>Assessing the Efficacy of Clinical Sentiment Analysis and Topic Extraction in Psychiatric Readmission Risk Prediction</t>
-  </si>
-  <si>
-    <t>Alvarez-Mellado, Holderness, Miller, Dhang, Cawkwell, Bolton, Putesjovsky, Hall</t>
-  </si>
-  <si>
-    <t>Psychiatric Readmission</t>
-  </si>
-  <si>
-    <t>Medical history</t>
-  </si>
-  <si>
-    <t>2,346 clinical notes for 183 patients</t>
-  </si>
-  <si>
-    <t>https://www.aclweb.org/anthology/D19-6211/</t>
-  </si>
-  <si>
     <t>Dreaddit: A Reddit Dataset for Stress Analysis in Social Media</t>
   </si>
   <si>
@@ -1175,15 +1026,6 @@
   </si>
   <si>
     <t>Schoene, Lacy, Turner, Dethlefs</t>
-  </si>
-  <si>
-    <t>Death Row Last Statements, The Kernel/Tumblr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Row Death Row (Texas Department of Criminal Justices); </t>
-  </si>
-  <si>
-    <t>Suicide, Imminent Death, Depression, Lonliness</t>
   </si>
   <si>
     <t>Last Statements: 431 notes
@@ -1249,9 +1091,6 @@
     <t>Shahreen, Subhani, Mahfuzur Rahman</t>
   </si>
   <si>
-    <t>Twitter, Interviews</t>
-  </si>
-  <si>
     <t>Interview Corpus: manual annotation from 3 human judges.
 Twitter Corpus: Distant supervision based on hashtag usage at the end of a Tweet</t>
   </si>
@@ -1263,9 +1102,6 @@
     <t>https://ieeexplore.ieee.org/abstract/document/8461990</t>
   </si>
   <si>
-    <t>Keyphrases/Keywords - Unclear how the negative class is determined</t>
-  </si>
-  <si>
     <t>Not stated</t>
   </si>
   <si>
@@ -1304,9 +1140,6 @@
     <t>https://paulallen.ca/docs/Jamil,%20Z%20Monitoring%20tweets%20for%20depression%20to%20detect%20at-risk%20users%20-%202017.pdf</t>
   </si>
   <si>
-    <t>Keyphrases/Keywords based on suicide-related terms. Additional set of filter criteria to remove sarcastic/irrelevant material. Two raters verified random sample of 1,000 tweets (agreement 79.6% of the time). Of the 1,000 tweets, 789 were found to be relevant.</t>
-  </si>
-  <si>
     <t>733,011 tweets from 594,776 individuals</t>
   </si>
   <si>
@@ -1322,9 +1155,6 @@
     <t>A multilevel predictive model for detecting social network users with depression</t>
   </si>
   <si>
-    <t>Exploring the utility of community-generated social media content for detecting depression: an analytical study on instagram</t>
-  </si>
-  <si>
     <t>Detecting suicidal ideation on forums: proof-of-concept study</t>
   </si>
   <si>
@@ -1343,24 +1173,15 @@
     <t>User-level psychological stress detection from social media using deep neural network</t>
   </si>
   <si>
-    <t>Lin</t>
-  </si>
-  <si>
     <t>Psychological stress detection from cross-media microblog data using deep sparse neural network</t>
   </si>
   <si>
-    <t>Detecting stress based on social interactions in social networks</t>
-  </si>
-  <si>
     <t>A depression detection model based on sentiment analysis in micro-blog social network</t>
   </si>
   <si>
     <t>Cross-domain depression detection via harvesting social media</t>
   </si>
   <si>
-    <t>Teenagers’ stress detection based on time-sensitive micro-blog com- ment/response actions</t>
-  </si>
-  <si>
     <t>Recovery Amid Pro-Anorexia: Analysis of Recovery in Social Media</t>
   </si>
   <si>
@@ -1406,9 +1227,6 @@
     <t>MIDAS: Mental illness detection and analysis via social media</t>
   </si>
   <si>
-    <t>Predicting depression from language-based emotion dynamics: longitudinal analysis of facebook and twitter status updates</t>
-  </si>
-  <si>
     <t>Depression detection via harvesting social media: A multimodal dictionary learning solution</t>
   </si>
   <si>
@@ -1439,9 +1257,6 @@
     <t>Machine Classification and analysis of suicide-related communication on Twitter</t>
   </si>
   <si>
-    <t>Methological Gaps in Predicting Mental Health States from Social Media: Triangulating Diagnostic Signals</t>
-  </si>
-  <si>
     <t>Assessing suicide risk and emotional distress in Chinese social media: a text mining and machine learning study</t>
   </si>
   <si>
@@ -1464,9 +1279,6 @@
   </si>
   <si>
     <t xml:space="preserve">Automatic detection of cyberbullying in social media text </t>
-  </si>
-  <si>
-    <t>Benchmarking Agression Identification in Social Media</t>
   </si>
   <si>
     <t>Detection of Depression-related Posts in Reddit Social Media Forum</t>
@@ -1642,15 +1454,9 @@
     <t>Regular expressions to identify Twitter users with self-disclosed anxiety; manual annotation of validity for the users. Tweets annotated as being anxiety-related based on keywords (LIWC + embedding similarity expansion) and model trained on r/Anxiety vs. Control data</t>
   </si>
   <si>
-    <t>200 individals (209,290 tweets)</t>
-  </si>
-  <si>
     <t>Gkotsis, Oellrich, Velupillai, Liakata, Hubbard, Dobson, Dutta</t>
   </si>
   <si>
-    <t>Borderline Personality Disorder, Bipolar Disorder, Schizophrenia, Anixety, Depression, Self-harm, Suicidality, Addiction, Alcoholism, Opiates, Autism, and Control</t>
-  </si>
-  <si>
     <t>Classification on a post-level of each mental health condition. Assignments based on subreddit. Authors manually labeled 160 posts from the given 16 mental-health subreddits to verify that they consistently matched the nominal purpose of the given subreddit</t>
   </si>
   <si>
@@ -1661,9 +1467,6 @@
   </si>
   <si>
     <t>Reddit, Online Support Forums</t>
-  </si>
-  <si>
-    <t>Depression; Breast Cancer Support; Familiar Support; Relationship Support</t>
   </si>
   <si>
     <t>400 posts per data set group</t>
@@ -1717,22 +1520,13 @@
     <t>Identified users who posted in anxiety related subreddits and then selected control users based on the non-mental-health-related subreddits that the anxiety-users tended to post in</t>
   </si>
   <si>
-    <t>1,569 documents (523 anxiety concatenated histories, 523 anxiety concatenated histories from non-anxiety forums, 523 comparison concatentated histories from members not in non-anxiety forums)</t>
-  </si>
-  <si>
     <t>The Language of Social Support in Social Media and its Effect on Suicidal Ideation Risk</t>
   </si>
   <si>
     <t>Ernala, Birnbaum, Candan, Rizvi, Sterling, Kane, De Choudury</t>
   </si>
   <si>
-    <t>Twiter, Facebook</t>
-  </si>
-  <si>
     <t>Schizophrenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consider 4 types of labels: Affiliation Data (based on following Schizophrenia and Related Disorders Alliance of America account), Self-Report (e.g. regular expressions); Clinically-appraised Self-report (e.g. self-report + clinicician assessment of history), Schizophrenic Patients in IRB Study. Control data sampled to match based on data characteristics (e.g. language, followers, friends) </t>
   </si>
   <si>
     <t>Affiliation: 1847 users
@@ -1751,12 +1545,6 @@
     <t>Recruit participants via Mturk; Participants take DSI-SS (Depressive Symptom Inventory-Suicide Subscale). Participants with score &gt; 2 labeled as suicidal.</t>
   </si>
   <si>
-    <t>135 Partipants (17 Suicidal)</t>
-  </si>
-  <si>
-    <t>Inferring Social Meda Users' Mental Health Status from Multimodal Information</t>
-  </si>
-  <si>
     <t>Ive, Gkotis, Dutta, Stewart, Velupillai</t>
   </si>
   <si>
@@ -1811,9 +1599,6 @@
     <t>7314 posts (664 suicide)</t>
   </si>
   <si>
-    <t>Human annotors determined level of sucidial ideation in each microblog. 3 Levels (sucide warning sign but no plan, suicide plan but no attempt, plan and attempt). All levels transformed into a single binary task: suicidal ideation or not</t>
-  </si>
-  <si>
     <t>Lin, Jia, Guo, Xue, Li, Huang, Cai, Feng</t>
   </si>
   <si>
@@ -1841,9 +1626,6 @@
     <t>Wang, Zhang, Ji, Sun, Wu, Bao</t>
   </si>
   <si>
-    <t>Questionairre-based and interviews by psychologists</t>
-  </si>
-  <si>
     <t>122 depressed, 346 non-depressed individuals (6013 posts total)</t>
   </si>
   <si>
@@ -1853,9 +1635,6 @@
     <t>Tencent Weibo</t>
   </si>
   <si>
-    <t>Authors interviewed high school students and had them mnaually scan their own tweets to annotate them on four stress categories</t>
-  </si>
-  <si>
     <t>36 individuals (21,648 tweets)</t>
   </si>
   <si>
@@ -1880,39 +1659,21 @@
     <t>Anorexia (Recovery), Anorexia</t>
   </si>
   <si>
-    <t>Snowball sampling to identify eating disorder-related posts (304 tags, 55,334 posts, 18,923 users); separate pro-recovery and pro-ana communities based on tag subset (identified using co-occurrence methods); sampled 32,000 control posts using 10 most frequent tags (e.g. GIF, art, food) meant to represent general tumblr use</t>
-  </si>
-  <si>
-    <t>Anorexia: 55,334 posts, 18,293 users (11,301 pro-recovery, 44,033 pro-ana); Conttrol: 32,000 posts</t>
-  </si>
-  <si>
     <t>Simms, Ramstedt, Rich, Richards, Martinez, Giraud-Carrier</t>
   </si>
   <si>
     <t>Cognitive Distortion</t>
   </si>
   <si>
-    <t>Query posts containing "personal", "lonely", "pathetic", and "sad" tags (493 total, 459 ractually eadable); each post annotated by 4 of the authors as exhibiting distorted or undistorted thought patterns</t>
-  </si>
-  <si>
     <t>459 posts (206 distorted, 252 undistorted)</t>
   </si>
   <si>
     <t>Birnbaum, Kiranmai Ernala, Rizvi, De Choudhury, Kane</t>
   </si>
   <si>
-    <t>Regular expressions to identify Twitter users with self-disclosed schizophrenia (21,254 posts by 15,504 users); randomly sampled 671 users for manual clinical appraisal; control group was random saple w/o mentions of schizophrenia or psychosis; psychiatrist and graduate-level mental health clinician used disclosure tweet and +- 10 surrounding tweets to verify authenticity</t>
-  </si>
-  <si>
-    <t>Schizophrenia Authenticity (146 yes, 101 maybe, 424 no Users) with (1.9M, 1.5M, and 8.8M tweets, respetively); Additional sample of 100 users (18 authenticated positive by experts)</t>
-  </si>
-  <si>
     <t>Burnap, Colombo, Scourfield</t>
   </si>
   <si>
-    <t>Use 4 suicide related websites (experienceproject, enotalone, takethislife, recoveryourlife) and tumblr as data for identifying suicide-related lexicon (via TF-IDF); track 62 resulting keywords (n-grams 1-5) on Twitter for 6 weeks starting in Feb. 2014; sample 800 tweets containing keywords and an additional 200 containing names of publicised suicides; crowdsource 4 annotations per tweet amongst 7 categories to distinguish suicide relevance; removed tweets with &lt; 75% agreement</t>
-  </si>
-  <si>
     <t>816 Tweets (13% evidence of possible suicidal ideation)</t>
   </si>
   <si>
@@ -1943,9 +1704,6 @@
     <t>2000 tweets</t>
   </si>
   <si>
-    <t>Start with corpus of 2.5 million tweets (Sadilek et al. (2012)) from 6,237 users in New York City; Sampled 1,370 teets from 2000 with highest LIWC "sad" score and an additional disjoint 630 tweets matching suicide-risk-factor keywords; half tweets annotated by novice and half tweets annotated by counseling psychologist with 4 labels (Happy, No distress, low distress, high distress) based on +- 3 tweets around match</t>
-  </si>
-  <si>
     <t>Loveys, Crutchley, Wyatt, Coppersmith</t>
   </si>
   <si>
@@ -1955,15 +1713,9 @@
     <t>Anxiety (2,408 users), eating disorder (749 users), panic attacks (263 users), schizophrenia (350 users), and suicide attempt (424 users)</t>
   </si>
   <si>
-    <t>Self-dislosed diagnosis statements and manual verification; control group contains age- and gender-matched controls; Same as "Multi-Task Learning" (Benton et al.) dataset, with filtering down to users who post multiple times within a 3-hour window</t>
-  </si>
-  <si>
     <t>McManus, Mallory, Goldfelder, Haynes, Tatum</t>
   </si>
   <si>
-    <t>Not a peer-reviewed study</t>
-  </si>
-  <si>
     <t>Schizophrenia identified if 2+ conditions hold: self-disclose diagnosis in user description, self-disclose in status update, follows @schizotribe; control set sampled from 1% random stream and age-matched (manually)</t>
   </si>
   <si>
@@ -1985,9 +1737,6 @@
     <t>Depression, Eating Disorders</t>
   </si>
   <si>
-    <t>Spanish and Portuguese regular expressions to identify tweets likely to contain each disease; tweets were manually annotated as positive (content indicates user has disease), negative (content indicates user does not have disease), or undecide (neither) performed by 2 medical doctors and three engineers</t>
-  </si>
-  <si>
     <t>Depression (Spanish: 3,253 tweets [160 positive], Portuguese: 2,846 [120 positive] tweets); Eating Disorders (Spanish: 412 [111 positive] tweets, Portuguese: 468 [87 positive] tweets)</t>
   </si>
   <si>
@@ -2000,9 +1749,6 @@
     <t>CLPsych 2015 Shared Task Data (e.g. regex for self-disclosed diagnoses); Pennebaker and King (1999) steam-of-consciousness essays where students write down their thoughts, sensations, and feelings as they come to them</t>
   </si>
   <si>
-    <t>CLPsych Data (~600 depression + ~600 age+gender matched controls); Steam-of-conciousness essays (6,459 individuals)</t>
-  </si>
-  <si>
     <t>Leverage existing CLPsych 2015 dataset for depression classification</t>
   </si>
   <si>
@@ -2012,6 +1758,9 @@
     <t>Mood Instability, Bipolar Disorder, Borderline Personality Disorder</t>
   </si>
   <si>
+    <t>Twitter, Facebook</t>
+  </si>
+  <si>
     <t>Twitter, Facebook, Ecological Momentary Assessments</t>
   </si>
   <si>
@@ -2021,9 +1770,6 @@
     <t>EMA (51 participants, 1,606 responses), Facebook CL Study (23 participants, 13,340 status updates), Twitter CL (10 participants, 1425 tweets); Twitter Bipolar (6,326 users, 14M tweets); Twitter Borderline (3,238 users 7M tweets); Twitter Control (9,394 users, 15M tweets)</t>
   </si>
   <si>
-    <t>Mood and Valence captured using Photographic Affect Meter in EMAs; Particpants took a bettery of validated questionairres (Perceived Stress Sclae, Depression Anxiety and Stress Scale, Flourishing Scale) at start of study; Supplemental Twitter data labeled using regular expression disclosures with manual verification of authenticity</t>
-  </si>
-  <si>
     <t>Saravia, Chang, Jollet De Lorenzo, Chen</t>
   </si>
   <si>
@@ -2033,9 +1779,6 @@
     <t>Bipolar Disorder (278 users), Borderline Personality Disorder (203 users), Control (548 users)</t>
   </si>
   <si>
-    <t>Identify candidate users using followers of popular Borderline Personality and Bipolar Disorder accounts, Regular expressions against Twitter profiles to identify Borderline and Bipolar Disorders; random users sampled in equal quantity to form control group</t>
-  </si>
-  <si>
     <t>Seabrook, Kern, Fulcher, Rickard</t>
   </si>
   <si>
@@ -2060,9 +1803,6 @@
     <t>Vedula, Parthasarathy</t>
   </si>
   <si>
-    <t xml:space="preserve">Depression users indentified using small set of relevant keywords and explict reporting of taking anti-depression medication; Control group consists of random sample of users in the United States </t>
-  </si>
-  <si>
     <t>Depression (50 users); Control (100 users)</t>
   </si>
   <si>
@@ -2090,9 +1830,6 @@
     <t>Nguyen, Phung, Dao, Venkatesh, Berk</t>
   </si>
   <si>
-    <t>LifeJournal</t>
-  </si>
-  <si>
     <t>Depression, Self-Harm, Suicide, Bipolar Disorder, Grief</t>
   </si>
   <si>
@@ -2120,9 +1857,6 @@
     <t>PTT (Bulletin Board System)</t>
   </si>
   <si>
-    <t>Users of the "Prozac" message board labeled as depressed, while those on the "Sad" message board labeled as having ordinary sadness; Also look at two happiness message boards "gossipping" and "happy" to represent messages with non-negative emotions</t>
-  </si>
-  <si>
     <t>Gossiping (1,699 users, 6,505 posts), Happy (2,695 users, 11,209 posts), Prozac (1,027 users, 6,015 posts), Sad (1,652 users, 4,900 posts)</t>
   </si>
   <si>
@@ -2138,30 +1872,18 @@
     <t>Suicide (9,990 users), Depression (24,410 users), Control Group (228,949 users)</t>
   </si>
   <si>
-    <t>Users of 4 suicide-related forums and 10 depression-related forums on the platform considered as part of the "suicide" and depression groups respectively group, while users who did not participate in the forums but were active were considered "control"</t>
-  </si>
-  <si>
     <t>Lin, Jia, Nie, Shen, Chua</t>
   </si>
   <si>
     <t>http://stressmeasure.droppages.com</t>
   </si>
   <si>
-    <t>Stress (Stressor and Stress Subject)</t>
-  </si>
-  <si>
-    <t>Used word-embeddings to identify terms likely to represent stressors and stress subects; manually annotated 2,000 posts with stressor and subject and an additional 600 posts considered as non-stress related</t>
-  </si>
-  <si>
     <t>Wang, Zhang, Sun</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>Users detected by group of psychologists with traditional diagnosis criteria through questionairres and surveys</t>
-  </si>
-  <si>
     <t>Stress (2,000 posts), Control (600 posts)</t>
   </si>
   <si>
@@ -2192,9 +1914,6 @@
     <t>Yan, Fitzsimmons-Craft, Goodman, Krauss, Das, Cavazos-Rehg</t>
   </si>
   <si>
-    <t>Sample 53 posts from eating disorder subreddits for manual binary annotation (postive for immense risk, negative otherwise); 6,000 additional posts sampled as being the "hottest" submissions on EatingDisorders, BingeEatingDisorder, eating_disorders, bulimia, proED, and fuckeatingdisorders; Coders manually evaluated top 50 (114 unique) most likely risky posts as labeled by 5 classifiers</t>
-  </si>
-  <si>
     <t>Positive (38 posts), Negative (15 posts), Unlabeled (6,000)</t>
   </si>
   <si>
@@ -2207,12 +1926,6 @@
     <t>AskFM</t>
   </si>
   <si>
-    <t>Annotators were provided detailed schematic for labelling; 2-levels (relation to cyberbulling and then type of cyberbullying); 7-types of cyclber bullying</t>
-  </si>
-  <si>
-    <t>English (113,698 posts [5,375 cyberbulling]), Dutch (78,387 posts, [5,106 cyberbullying])</t>
-  </si>
-  <si>
     <t>Kumar, Ojha, Malmasi, Zampieri</t>
   </si>
   <si>
@@ -2228,9 +1941,6 @@
     <t>Facebook (15,000 comments), Twitter (1,257 English + 1,194 Hindi Tweets)</t>
   </si>
   <si>
-    <t>Subset of Kumar et al. (2018b); English + Hindi versions</t>
-  </si>
-  <si>
     <t>Tadesse, Lin, Xu, Yang</t>
   </si>
   <si>
@@ -2243,9 +1953,6 @@
     <t>Vioulès, Moulahi, Azé, Bringay</t>
   </si>
   <si>
-    <t>Query Twitter straming API using keywords from APA's list of risk factors and AAS's list of warning signs related to suicide; identify 60 distressed users amongst sample that frequently discuss depression, suicide, and self-mutilation (in addition to 60 other random users); remove 500/5,446 tweets for manual labeling (no distress, minimal distress, moderate distress, severe distress)</t>
-  </si>
-  <si>
     <t>Depression (60 users, 2,381 tweets), Non-depression (60 users, 3,065 tweets)</t>
   </si>
   <si>
@@ -2273,12 +1980,6 @@
     <t>Losada, Crestani, Parapar</t>
   </si>
   <si>
-    <t>Depression, Anxorexia</t>
-  </si>
-  <si>
-    <t>Regular expressions used to identify individuals wih diagnosis; control groups include users who often post about the disorder but do not have it (e.g. support a peer or family member)</t>
-  </si>
-  <si>
     <t>Task 1: Depression (214 users, 90,222 posts), Control (831 users, 0.9M posts); Task 2: Anorexia (61 users, 24,874 posts); Control (411 users, 228,878 posts)</t>
   </si>
   <si>
@@ -2483,9 +2184,6 @@
     <t>http://www.munmund.net/pubs/Anxiety_SocialInt_ICWSM18.pdf</t>
   </si>
   <si>
-    <t>Characterisation of mental health conditions in social media using Informed Deep Learning</t>
-  </si>
-  <si>
     <t>Within and between-person differences in language used across anxiety support and neutral reddit communities</t>
   </si>
   <si>
@@ -2531,9 +2229,6 @@
     <t>https://ieeexplore.ieee.org/abstract/document/6890213</t>
   </si>
   <si>
-    <t>https://ieeexplore.ieee.org/abstract/document/7885098</t>
-  </si>
-  <si>
     <t>https://link.springer.com/chapter/10.1007/978-3-642-40319-4_18</t>
   </si>
   <si>
@@ -2691,6 +2386,168 @@
   </si>
   <si>
     <t>https://link.springer.com/chapter/10.1007/978-3-319-65813-1_30</t>
+  </si>
+  <si>
+    <t>Depression, Anorexia</t>
+  </si>
+  <si>
+    <t>Authors interviewed high school students and had them manually scan their own tweets to annotate them on four stress categories</t>
+  </si>
+  <si>
+    <t>Query posts containing "personal", "lonely", "pathetic", and "sad" tags (493 total, 459 actually readable); each post annotated by 4 of the authors as exhibiting distorted or undistorted thought patterns</t>
+  </si>
+  <si>
+    <t>Regular expressions to identify Twitter users with self-disclosed schizophrenia (21,254 posts by 15,504 users); randomly sampled 671 users for manual clinical appraisal; control group was random sample w/o mentions of schizophrenia or psychosis; psychiatrist and graduate-level mental health clinician used disclosure tweet and +- 10 surrounding tweets to verify authenticity</t>
+  </si>
+  <si>
+    <t>Spanish and Portuguese regular expressions to identify tweets likely to contain each disease; tweets were manually annotated as positive (content indicates user has disease), negative (content indicates user does not have disease), or undecided (neither) performed by 2 medical doctors and three engineers</t>
+  </si>
+  <si>
+    <t>Identify candidate users using followers of popular Borderline Personality and Bipolar Disorder accounts, Regular expressions against Twitter profiles to identify Borderline Personality and Bipolar Disorder; random users sampled in equal quantity to form control group</t>
+  </si>
+  <si>
+    <t>LiveJournal</t>
+  </si>
+  <si>
+    <t>Users of the "Prozac" message board labeled as depressed, while those on the "Sad" message board labeled as having ordinary sadness; Also look at two happiness message boards "gossiping" and "happy" to represent messages with non-negative emotions</t>
+  </si>
+  <si>
+    <t>Users of 4 suicide-related forums and 10 depression-related forums on the platform considered as part of the "suicide" and "depression" groups respectively group, while users who did not participate in the forums but were active were considered "control"</t>
+  </si>
+  <si>
+    <t>Subset of Kumar et al. (2018); English + Hindi versions</t>
+  </si>
+  <si>
+    <t>http://ceur-ws.org/Vol-2380/paper_74.pdf</t>
+  </si>
+  <si>
+    <t>Suicide, Imminent Death, Depression, Loneliness</t>
+  </si>
+  <si>
+    <t>Stress, Stress (Stressor and Stress Subject)</t>
+  </si>
+  <si>
+    <t>14 mental-health related subreddits + small set of control subreddits (e.g. r/AskReddit)</t>
+  </si>
+  <si>
+    <t>Depression, Breast Cancer Support, Familiar Support, Relationship Support</t>
+  </si>
+  <si>
+    <t>Periods of Suicide Attempts, Suicidal Ideation, Depressive Episodes, Positive Mood</t>
+  </si>
+  <si>
+    <t>Twitter, Interview</t>
+  </si>
+  <si>
+    <t>Death Row Last Statements, The Kernel, Tumblr</t>
+  </si>
+  <si>
+    <t>Last Row Death Row (Texas Department of Criminal Justices); Known suicide and depression notes on Tumblr</t>
+  </si>
+  <si>
+    <t>Exploring the utility of community-generated social media content for detecting depression: an analytical study on Instagram</t>
+  </si>
+  <si>
+    <t>Characterization of mental health conditions in social media using Informed Deep Learning</t>
+  </si>
+  <si>
+    <t>Teenagers’ stress detection based on time-sensitive microblog comment/response actions</t>
+  </si>
+  <si>
+    <t>Predicting depression from language-based emotion dynamics: longitudinal analysis of Facebook and twitter status updates</t>
+  </si>
+  <si>
+    <t>Methodological Gaps in Predicting Mental Health States from Social Media: Triangulating Diagnostic Signals</t>
+  </si>
+  <si>
+    <t>Benchmarking Aggression Identification in Social Media</t>
+  </si>
+  <si>
+    <t>Inferring Social Media Users' Mental Health Status from Multimodal Information</t>
+  </si>
+  <si>
+    <t>Anxiety, Borderline Personality, Bipolar, Opiate Addiction, Self Hard, Addiction, Asperger's, Autism, Alcoholism, Opiate Usage, Schizophrenia, Self-hard, Suicidal Ideation</t>
+  </si>
+  <si>
+    <t>Borderline Personality Disorder, Bipolar Disorder, Schizophrenia, Anxiety, Depression, Self-harm, Suicidality, Addiction, Alcoholism, Opiates, Autism, and Control</t>
+  </si>
+  <si>
+    <t>Regular-expressions; age- &amp; gender- matched controls</t>
+  </si>
+  <si>
+    <t>Subreddit Participation; classes distinguished based on time period of posting and movement between r/SuicideWatch and other mental-health subreddits</t>
+  </si>
+  <si>
+    <t>Key phrases/Keywords based on suicide-related terms. Additional set of filter criteria to remove sarcastic/irrelevant material. Two raters verified random sample of 1,000 tweets (agreement 79.6% of the time). Of the 1,000 tweets, 789 were found to be relevant.</t>
+  </si>
+  <si>
+    <t>Key phrases/Keywords - Unclear how the negative class is determined</t>
+  </si>
+  <si>
+    <t>Human annotators determined level of suicidal ideation in each microblog. 3 Levels (suicide warning sign but no plan, suicide plan but no attempt, plan and attempt). All levels transformed into a single binary task: suicidal ideation or not</t>
+  </si>
+  <si>
+    <t>Questionnaire-based and interviews by psychologists</t>
+  </si>
+  <si>
+    <t>Snowball sampling to identify eating disorder-related posts (304 tags, 55,334 posts, 18,923 users); separate pro-recovery and pro-ana communities based on tag subset (identified using co-occurrence methods); sampled 32,000 control posts using 10 most frequent tags (e.g. GIF, art, food) meant to represent general Tumblr use</t>
+  </si>
+  <si>
+    <t>Use 4 suicide related websites (experienceproject, enotalone, takethislife, recoveryourlife) and Tumblr as data for identifying suicide-related lexicon (via TF-IDF); track 62 resulting keywords (n-grams 1-5) on Twitter for 6 weeks starting in Feb. 2014; sample 800 tweets containing keywords and an additional 200 containing names of publicized suicides; crowdsource 4 annotations per tweet amongst 7 categories to distinguish suicide relevance; removed tweets with &lt; 75% agreement</t>
+  </si>
+  <si>
+    <t>Start with corpus of 2.5 million tweets (Sadilek et al. (2012)) from 6,237 users in New York City; Sampled 1,370 tweets from 2000 with highest LIWC "sad" score and an additional disjoint 630 tweets matching suicide-risk-factor keywords; half tweets annotated by novice and half tweets annotated by counseling psychologist with 4 labels (Happy, No distress, low distress, high distress) based on +- 3 tweets around match</t>
+  </si>
+  <si>
+    <t>Self-disclosed diagnosis statements and manual verification; control group contains age- and gender-matched controls; Same as "Multi-Task Learning" (Benton et al.) dataset, with filtering down to users who post multiple times within a 3-hour window</t>
+  </si>
+  <si>
+    <t>Mood and Valence captured using Photographic Affect Meter in EMAs; Participants took a battery of validated questionnaires (Perceived Stress Scale, Depression Anxiety and Stress Scale, Flourishing Scale) at start of study; Supplemental Twitter data labeled using regular expression disclosures with manual verification of authenticity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depression users identified using small set of relevant keywords and explicit reporting of taking anti-depression medication; Control group consists of random sample of users in the United States </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider 4 types of labels: Affiliation Data (based on following Schizophrenia and Related Disorders Alliance of America account), Self-Report (e.g. regular expressions); Clinically-appraised Self-report (e.g. self-report + clinician assessment of history), Schizophrenic Patients in IRB Study. Control data sampled to match based on data characteristics (e.g. language, followers, friends) </t>
+  </si>
+  <si>
+    <t>Used word-embeddings to identify terms likely to represent stressors and stress subjects; manually annotated 2,000 posts with stressor and subject and an additional 600 posts considered as non-stress related</t>
+  </si>
+  <si>
+    <t>Users detected by group of psychologists with traditional diagnosis criteria through questionnaires and surveys</t>
+  </si>
+  <si>
+    <t>Sample 53 posts from eating disorder subreddits for manual binary annotation (positive for immense risk, negative otherwise); 6,000 additional posts sampled as being the "hottest" submissions on EatingDisorders, BingeEatingDisorder, eating_disorders, bulimia, proED, and fuckeatingdisorders; Coders manually evaluated top 50 (114 unique) most likely risky posts as labeled by 5 classifiers</t>
+  </si>
+  <si>
+    <t>Annotators were provided detailed schematic for labelling; 2-levels (relation to cyberbullying and then type of cyberbullying); 7-types of cyber bullying</t>
+  </si>
+  <si>
+    <t>Query Twitter streaming API using keywords from APA's list of risk factors and AAS's list of warning signs related to suicide; identify 60 distressed users amongst sample that frequently discuss depression, suicide, and self-mutilation (in addition to 60 other random users); remove 500/5,446 tweets for manual labeling (no distress, minimal distress, moderate distress, severe distress)</t>
+  </si>
+  <si>
+    <t>Regular expressions used to identify individuals with diagnosis; control groups include users who often post about the disorder but do not have it (e.g. support a peer or family member)</t>
+  </si>
+  <si>
+    <t>200 individuals (209,290 tweets)</t>
+  </si>
+  <si>
+    <t>1,569 documents (523 anxiety concatenated histories, 523 anxiety concatenated histories from non-anxiety forums, 523 comparison concatenated histories from members not in non-anxiety forums)</t>
+  </si>
+  <si>
+    <t>Anorexia: 55,334 posts, 18,293 users (11,301 pro-recovery, 44,033 pro-ana); Control: 32,000 posts</t>
+  </si>
+  <si>
+    <t>Schizophrenia Authenticity (146 yes, 101 maybe, 424 no Users) with (1.9M, 1.5M, and 8.8M tweets, respectively); Additional sample of 100 users (18 authenticated positive by experts)</t>
+  </si>
+  <si>
+    <t>135 Participants (17 Suicidal)</t>
+  </si>
+  <si>
+    <t>CLPsych Data (~600 depression + ~600 age- &amp; gender- matched controls); Steam-of-consciousness essays (6,459 individuals)</t>
+  </si>
+  <si>
+    <t>English (113,698 posts [5,375 cyberbullying]), Dutch (78,387 posts, [5,106 cyberbullying])</t>
   </si>
 </sst>
 </file>
@@ -2726,12 +2583,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3049,11 +2905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I140" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3141,7 +2997,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>747</v>
+        <v>648</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -3170,7 +3026,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>749</v>
+        <v>650</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -3561,27 +3417,27 @@
         <v>104</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C19" s="1">
         <v>2016</v>
@@ -3590,27 +3446,27 @@
         <v>104</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C20" s="1">
         <v>2017</v>
@@ -3619,53 +3475,53 @@
         <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1">
         <v>2016</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1">
         <v>2015</v>
@@ -3674,27 +3530,27 @@
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1">
         <v>2013</v>
@@ -3709,21 +3565,21 @@
         <v>57</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>483</v>
+        <v>421</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1">
         <v>2018</v>
@@ -3735,24 +3591,24 @@
         <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1">
         <v>2017</v>
@@ -3761,27 +3617,27 @@
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>146</v>
+        <v>797</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C26" s="1">
         <v>2018</v>
@@ -3790,56 +3646,56 @@
         <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C27" s="1">
         <v>2015</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C28" s="1">
         <v>2017</v>
@@ -3860,50 +3716,50 @@
         <v>17</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C29" s="1">
         <v>2018</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C30" s="1">
         <v>2019</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>50</v>
@@ -3912,363 +3768,369 @@
         <v>50</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K30" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="289" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C34" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="289" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C35" s="1">
         <v>2018</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C37" s="1">
         <v>2017</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C38" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C39" s="1">
+      <c r="K39" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="1">
         <v>2019</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="C43" s="1">
         <v>2018</v>
@@ -4277,294 +4139,300 @@
         <v>104</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>748</v>
+        <v>248</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>258</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="K44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C45" s="1">
         <v>2015</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="C46" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="G46" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C46" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C47" s="1">
         <v>2015</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>234</v>
+      <c r="I47" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C48" s="1">
         <v>2014</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="1" t="s">
+    </row>
+    <row r="50" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="C50" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C51" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="H52" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G51" s="1" t="s">
+    </row>
+    <row r="53" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="C53" s="1">
         <v>2019</v>
@@ -4573,56 +4441,56 @@
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C54" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C55" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>104</v>
@@ -4631,723 +4499,729 @@
         <v>63</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C56" s="1">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>321</v>
+        <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>323</v>
+        <v>16</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C57" s="1">
         <v>2019</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>130</v>
+        <v>316</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>131</v>
+        <v>317</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>58</v>
+        <v>225</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C58" s="1">
         <v>2019</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>330</v>
+        <v>786</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>331</v>
+        <v>780</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>332</v>
+        <v>787</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C59" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="C62" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>352</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>16</v>
+        <v>349</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="I62" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="K62" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G63" s="1" t="s">
+    </row>
+    <row r="66" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C64" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="B67" s="1" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="C67" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C68" s="1">
         <v>2017</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2013</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>389</v>
+        <v>788</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="C69" s="1">
         <v>2018</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>406</v>
+        <v>172</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="H69" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>402</v>
+      <c r="I71" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>401</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>407</v>
+        <v>693</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="C72" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>63</v>
+        <v>446</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>410</v>
+        <v>448</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>411</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="C73" s="1">
         <v>2018</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>417</v>
+        <v>697</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="C74" s="1">
         <v>2018</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>786</v>
+        <v>699</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="C75" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C76" s="1">
         <v>2017</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C77" s="1">
         <v>2018</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2017</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>502</v>
+        <v>817</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>791</v>
+        <v>704</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C78" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>504</v>
+        <v>796</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>511</v>
+        <v>463</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>792</v>
+        <v>707</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>507</v>
+        <v>364</v>
       </c>
       <c r="C79" s="1">
         <v>2018</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>184</v>
+        <v>464</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>508</v>
+        <v>783</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="K79" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="C80" s="1">
         <v>2018</v>
@@ -5356,760 +5230,754 @@
         <v>104</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>514</v>
+        <v>490</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>796</v>
+        <v>709</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="C81" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>516</v>
+        <v>316</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>798</v>
+        <v>366</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="C82" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>520</v>
+        <v>479</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>800</v>
+        <v>397</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="C83" s="1">
         <v>2017</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>108</v>
+        <v>503</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>527</v>
+        <v>185</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C84" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="G84" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>108</v>
+        <v>505</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>804</v>
+        <v>368</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>558</v>
+        <v>506</v>
       </c>
       <c r="C85" s="1">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>104</v>
+        <v>510</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>524</v>
+        <v>316</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="221" x14ac:dyDescent="0.2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>807</v>
+        <v>369</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
       <c r="C86" s="1">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>528</v>
+        <v>268</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>529</v>
+        <v>316</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>108</v>
+        <v>512</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="K86" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>562</v>
+        <v>514</v>
       </c>
       <c r="C87" s="1">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>104</v>
+        <v>268</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>559</v>
+        <v>802</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>561</v>
+        <v>185</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>809</v>
+        <v>371</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>563</v>
+        <v>468</v>
       </c>
       <c r="C88" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>104</v>
+        <v>469</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>365</v>
+        <v>63</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>564</v>
+        <v>471</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>108</v>
+        <v>470</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>566</v>
+        <v>472</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>422</v>
+        <v>790</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>567</v>
+        <v>516</v>
       </c>
       <c r="C89" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>104</v>
+        <v>517</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>544</v>
+        <v>316</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>568</v>
+        <v>770</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>108</v>
+        <v>518</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="187" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="238" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>458</v>
+        <v>372</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>570</v>
+        <v>524</v>
       </c>
       <c r="C90" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>283</v>
+        <v>519</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>573</v>
+        <v>521</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>194</v>
+        <v>523</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>574</v>
+        <v>377</v>
       </c>
       <c r="C91" s="1">
         <v>2015</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>283</v>
+        <v>519</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>130</v>
+        <v>525</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>576</v>
+        <v>803</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>194</v>
+        <v>818</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="C92" s="1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>581</v>
+        <v>519</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>365</v>
+        <v>527</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>578</v>
+        <v>771</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>580</v>
+        <v>528</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>577</v>
+        <v>529</v>
       </c>
       <c r="C93" s="1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>365</v>
+        <v>483</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>582</v>
+        <v>772</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>584</v>
+        <v>819</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="C94" s="1">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="272" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>585</v>
+        <v>530</v>
       </c>
       <c r="C95" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="221" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C96" s="1">
         <v>2013</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E95" s="1" t="s">
+      <c r="D96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C96" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F96" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I96" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K96" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C97" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>591</v>
+      <c r="H97" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>819</v>
+        <v>726</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="238" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>597</v>
+        <v>538</v>
       </c>
       <c r="C98" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>592</v>
+        <v>13</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>593</v>
+        <v>539</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>595</v>
+        <v>805</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>461</v>
+        <v>380</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>436</v>
+        <v>541</v>
       </c>
       <c r="C99" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>592</v>
+        <v>13</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>598</v>
+        <v>542</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>599</v>
+        <v>806</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>108</v>
+        <v>543</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>821</v>
+        <v>728</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="C100" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>592</v>
+        <v>13</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>602</v>
+        <v>483</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>603</v>
+        <v>545</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>604</v>
+        <v>546</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="221" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>605</v>
+        <v>547</v>
       </c>
       <c r="C101" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="K101" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="C102" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="272" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="C103" s="1">
         <v>2015</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>13</v>
+        <v>657</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>609</v>
+        <v>555</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>610</v>
+        <v>821</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="221" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>611</v>
+        <v>557</v>
       </c>
       <c r="C104" s="1">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>612</v>
+        <v>558</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>614</v>
+        <v>807</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>613</v>
+        <v>562</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>611</v>
+        <v>563</v>
       </c>
       <c r="C105" s="1">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C106" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="F106" s="1" t="s">
-        <v>620</v>
+        <v>568</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>621</v>
+        <v>473</v>
       </c>
       <c r="C107" s="1">
         <v>2017</v>
@@ -6118,1219 +5986,999 @@
         <v>13</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>622</v>
+        <v>63</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>624</v>
+        <v>477</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>623</v>
+        <v>476</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="C108" s="1">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>550</v>
+        <v>63</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>627</v>
+        <v>571</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>628</v>
+        <v>572</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>626</v>
+        <v>77</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>629</v>
+        <v>573</v>
       </c>
       <c r="C109" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>550</v>
+        <v>63</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>630</v>
+        <v>808</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="K109" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="238" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>632</v>
+        <v>575</v>
       </c>
       <c r="C110" s="1">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>633</v>
+        <v>122</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>636</v>
+        <v>577</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>832</v>
+        <v>739</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>637</v>
+        <v>578</v>
       </c>
       <c r="C111" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>13</v>
+        <v>579</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>638</v>
+        <v>580</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>639</v>
+        <v>581</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>640</v>
+        <v>77</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="187" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>641</v>
+        <v>582</v>
       </c>
       <c r="C112" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C113" s="1">
         <v>2017</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C113" s="1">
-        <v>2016</v>
-      </c>
       <c r="D113" s="1" t="s">
-        <v>13</v>
+        <v>587</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>648</v>
+        <v>176</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>649</v>
+        <v>589</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>651</v>
+        <v>590</v>
       </c>
       <c r="C114" s="1">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>652</v>
+        <v>591</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>653</v>
+        <v>776</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>654</v>
+        <v>592</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>538</v>
+        <v>594</v>
       </c>
       <c r="C115" s="1">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="238" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C116" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C117" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C118" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C119" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C120" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>669</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>670</v>
+        <v>607</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>671</v>
+        <v>608</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>672</v>
+        <v>609</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="204" x14ac:dyDescent="0.2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>673</v>
+        <v>610</v>
       </c>
       <c r="C121" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>674</v>
+        <v>104</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>675</v>
+        <v>812</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>676</v>
+        <v>611</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>677</v>
+        <v>612</v>
       </c>
       <c r="C122" s="1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>678</v>
+        <v>614</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>63</v>
+        <v>235</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>679</v>
+        <v>813</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>681</v>
+        <v>822</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>455</v>
+        <v>793</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>682</v>
+        <v>615</v>
       </c>
       <c r="C123" s="1">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>683</v>
+        <v>567</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>130</v>
+        <v>616</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>685</v>
+        <v>617</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>684</v>
+        <v>619</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>77</v>
+        <v>778</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="238" x14ac:dyDescent="0.2">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="C124" s="1">
         <v>2019</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>549</v>
+        <v>464</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>550</v>
+        <v>63</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>551</v>
+        <v>467</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>552</v>
+        <v>621</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>459</v>
+        <v>406</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="C125" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>688</v>
+        <v>128</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>689</v>
+        <v>814</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>687</v>
+        <v>624</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>690</v>
+        <v>625</v>
       </c>
       <c r="C126" s="1">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>283</v>
+        <v>104</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C127" s="1">
+      <c r="F127" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C128" s="1">
         <v>2019</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C128" s="1">
-        <v>2018</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>699</v>
+        <v>641</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>700</v>
+        <v>642</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>701</v>
+        <v>643</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="221" x14ac:dyDescent="0.2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>702</v>
+        <v>411</v>
       </c>
       <c r="C129" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C130" s="1">
         <v>2019</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="C130" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>707</v>
-      </c>
       <c r="E130" s="1" t="s">
-        <v>244</v>
+        <v>647</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>708</v>
+        <v>651</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>709</v>
+        <v>652</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>706</v>
+        <v>107</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>852</v>
+        <v>759</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>710</v>
+        <v>653</v>
       </c>
       <c r="C131" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C132" s="1">
         <v>2018</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="221" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C132" s="1">
+      <c r="D132" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C133" s="1">
         <v>2019</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="E133" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="204" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="C133" s="1">
+      <c r="F134" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C136" s="1">
         <v>2017</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C134" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="K134" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="170" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C135" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="C136" s="1">
-        <v>2019</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>740</v>
+        <v>673</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>741</v>
+        <v>674</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>742</v>
+        <v>675</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>676</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>858</v>
+        <v>764</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>473</v>
+        <v>677</v>
       </c>
       <c r="C137" s="1">
         <v>2018</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>95</v>
+        <v>795</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>743</v>
+        <v>105</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>744</v>
+        <v>106</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>474</v>
+        <v>420</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>745</v>
+        <v>679</v>
       </c>
       <c r="C138" s="1">
         <v>2019</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>746</v>
+        <v>63</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>751</v>
+        <v>680</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>860</v>
+        <v>766</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>475</v>
+        <v>794</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>752</v>
+        <v>681</v>
       </c>
       <c r="C139" s="1">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>13</v>
+        <v>587</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="C140" s="1">
+      <c r="F140" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C141" s="1">
         <v>2018</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C141" s="1">
-        <v>2019</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>761</v>
+        <v>815</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>762</v>
+        <v>633</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I141" s="1" t="s">
-        <v>763</v>
-      </c>
       <c r="K141" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C142" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="C143" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="C144" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="K144" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="C145" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C146" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C147" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C148" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="K148" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C149" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>733</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kharrigian/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9648A173-6046-4440-823E-C325BD657300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E333C4B-E356-5B4E-9DC8-BFF6A0816F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21740" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
@@ -2907,9 +2907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I140" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6638,7 +6638,7 @@
         <v>646</v>
       </c>
       <c r="C130" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>104</v>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kharrigian/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E333C4B-E356-5B4E-9DC8-BFF6A0816F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6640984D-7B46-0543-A379-A9B58A588E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21740" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
+    <workbookView xWindow="0" yWindow="7500" windowWidth="22200" windowHeight="14900" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -817,9 +817,6 @@
     <t>http://ir.cs.georgetown.edu/downloads/macavaney-clpsych2018.pdf</t>
   </si>
   <si>
-    <t>Sing, Nair, Zirikly, Friedenberg, Daumé III, Resnik</t>
-  </si>
-  <si>
     <t>Towards Developing an Annotation Scheme for Depressive Disorder Symptoms: A Preliminary Study using Twitter Data</t>
   </si>
   <si>
@@ -2548,6 +2545,9 @@
   </si>
   <si>
     <t>English (113,698 posts [5,375 cyberbullying]), Dutch (78,387 posts, [5,106 cyberbullying])</t>
+  </si>
+  <si>
+    <t>Shing, Nair, Zirikly, Friedenberg, Daumé III, Resnik</t>
   </si>
 </sst>
 </file>
@@ -2907,9 +2907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2997,7 +2997,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -3026,7 +3026,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
@@ -3417,7 +3417,7 @@
         <v>104</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>105</v>
@@ -3475,7 +3475,7 @@
         <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>116</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="24" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>137</v>
@@ -3620,7 +3620,7 @@
         <v>143</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>144</v>
@@ -3733,7 +3733,7 @@
         <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>165</v>
@@ -3866,7 +3866,7 @@
         <v>194</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>253</v>
+        <v>822</v>
       </c>
       <c r="C34" s="1">
         <v>2018</v>
@@ -4107,7 +4107,7 @@
         <v>104</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>242</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="44" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C44" s="1">
         <v>2015</v>
@@ -4171,123 +4171,123 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>225</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C45" s="1">
         <v>2015</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>225</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C46" s="1">
         <v>2014</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>185</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C47" s="1">
         <v>2015</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>185</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="C48" s="1">
         <v>2014</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>128</v>
@@ -4296,21 +4296,21 @@
         <v>236</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>185</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C49" s="1">
         <v>2017</v>
@@ -4322,24 +4322,24 @@
         <v>128</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="C50" s="1">
         <v>2019</v>
@@ -4360,15 +4360,15 @@
         <v>17</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C51" s="1">
         <v>2018</v>
@@ -4392,15 +4392,15 @@
         <v>208</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="C52" s="1">
         <v>2016</v>
@@ -4409,30 +4409,30 @@
         <v>154</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>225</v>
       </c>
       <c r="J52" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="C53" s="1">
         <v>2019</v>
@@ -4447,47 +4447,47 @@
         <v>129</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C54" s="1">
         <v>2019</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="K54" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="C55" s="1">
         <v>2019</v>
@@ -4511,15 +4511,15 @@
         <v>208</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="C56" s="1">
         <v>2019</v>
@@ -4540,15 +4540,15 @@
         <v>17</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="C57" s="1">
         <v>2019</v>
@@ -4557,85 +4557,85 @@
         <v>104</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>225</v>
       </c>
       <c r="J57" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C58" s="1">
         <v>2019</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>787</v>
-      </c>
       <c r="G58" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="C59" s="1">
         <v>2019</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>185</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C60" s="1">
         <v>2017</v>
@@ -4647,24 +4647,24 @@
         <v>128</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="C61" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>13</v>
@@ -4673,27 +4673,27 @@
         <v>128</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I61" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="C62" s="1">
         <v>2018</v>
@@ -4705,53 +4705,53 @@
         <v>63</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="C63" s="1">
         <v>2018</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="C64" s="1">
         <v>2018</v>
@@ -4763,24 +4763,24 @@
         <v>128</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="C65" s="1">
         <v>2017</v>
@@ -4792,21 +4792,21 @@
         <v>63</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C66" s="1">
         <v>2018</v>
@@ -4818,24 +4818,24 @@
         <v>63</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="K66" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C67" s="1">
         <v>2018</v>
@@ -4844,27 +4844,27 @@
         <v>36</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K67" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="B68" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C68" s="1">
         <v>2017</v>
@@ -4876,24 +4876,24 @@
         <v>63</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="K68" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C69" s="1">
         <v>2018</v>
@@ -4908,21 +4908,21 @@
         <v>172</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="K69" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C70" s="1">
         <v>2017</v>
@@ -4931,24 +4931,24 @@
         <v>121</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="K70" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C71" s="1">
         <v>2017</v>
@@ -4957,30 +4957,30 @@
         <v>175</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C72" s="1">
         <v>2018</v>
@@ -4989,30 +4989,30 @@
         <v>175</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C73" s="1">
         <v>2018</v>
@@ -5024,21 +5024,21 @@
         <v>128</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="K73" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C74" s="1">
         <v>2018</v>
@@ -5047,27 +5047,27 @@
         <v>104</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C75" s="1">
         <v>2018</v>
@@ -5076,27 +5076,27 @@
         <v>13</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C76" s="1">
         <v>2017</v>
@@ -5105,30 +5105,30 @@
         <v>104</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C77" s="1">
         <v>2018</v>
@@ -5137,27 +5137,27 @@
         <v>104</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>704</v>
-      </c>
       <c r="B78" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C78" s="1">
         <v>2018</v>
@@ -5166,62 +5166,62 @@
         <v>104</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C79" s="1">
         <v>2018</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K79" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C80" s="1">
         <v>2018</v>
@@ -5233,24 +5233,24 @@
         <v>63</v>
       </c>
       <c r="F80" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="K80" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C81" s="1">
         <v>2017</v>
@@ -5259,30 +5259,30 @@
         <v>104</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C82" s="1">
         <v>2017</v>
@@ -5291,317 +5291,317 @@
         <v>104</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F82" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C83" s="1">
         <v>2017</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>185</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C84" s="1">
         <v>2015</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>185</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C85" s="1">
         <v>2014</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F85" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C86" s="1">
         <v>2014</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="K86" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C87" s="1">
         <v>2013</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>185</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C88" s="1">
         <v>2018</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="K88" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C89" s="1">
         <v>2015</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="K89" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="238" x14ac:dyDescent="0.2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C90" s="1">
         <v>2016</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C91" s="1">
         <v>2015</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C92" s="1">
         <v>2017</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="K92" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C93" s="1">
         <v>2017</v>
@@ -5610,24 +5610,24 @@
         <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C94" s="1">
         <v>2016</v>
@@ -5636,24 +5636,24 @@
         <v>13</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="G94" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="272" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="255" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C95" s="1">
         <v>2015</v>
@@ -5665,21 +5665,21 @@
         <v>128</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C96" s="1">
         <v>2013</v>
@@ -5688,24 +5688,24 @@
         <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="K96" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C97" s="1">
         <v>2013</v>
@@ -5717,24 +5717,24 @@
         <v>63</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="238" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C98" s="1">
         <v>2014</v>
@@ -5743,24 +5743,24 @@
         <v>13</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="G98" s="1" t="s">
+      <c r="K98" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="136" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="C99" s="1">
         <v>2017</v>
@@ -5769,24 +5769,24 @@
         <v>13</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="K99" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C100" s="1">
         <v>2015</v>
@@ -5795,24 +5795,24 @@
         <v>13</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="K100" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C101" s="1">
         <v>2015</v>
@@ -5821,24 +5821,24 @@
         <v>13</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="K101" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C102" s="1">
         <v>2014</v>
@@ -5847,85 +5847,85 @@
         <v>13</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="G102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="K102" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C103" s="1">
         <v>2015</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="K103" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="187" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C104" s="1">
         <v>2017</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="K104" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C105" s="1">
         <v>2016</v>
@@ -5934,50 +5934,50 @@
         <v>13</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="G105" s="1" t="s">
+      <c r="K105" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="C106" s="1">
         <v>2018</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>569</v>
-      </c>
       <c r="K106" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C107" s="1">
         <v>2017</v>
@@ -5989,27 +5989,27 @@
         <v>63</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H107" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="J107" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="K107" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C108" s="1">
         <v>2013</v>
@@ -6021,24 +6021,24 @@
         <v>63</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C109" s="1">
         <v>2017</v>
@@ -6050,21 +6050,21 @@
         <v>63</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="221" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="238" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="C110" s="1">
         <v>2017</v>
@@ -6076,250 +6076,250 @@
         <v>122</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="K110" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C111" s="1">
         <v>2014</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C112" s="1">
         <v>2014</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="K112" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C113" s="1">
         <v>2017</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="K113" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="153" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="C114" s="1">
         <v>2013</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G114" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="K114" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C115" s="1">
         <v>2013</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="238" x14ac:dyDescent="0.2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C116" s="1">
         <v>2019</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="K116" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C117" s="1">
         <v>2016</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>225</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C118" s="1">
         <v>2013</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G118" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="K118" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C119" s="1">
         <v>2019</v>
@@ -6337,18 +6337,18 @@
         <v>17</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C120" s="1">
         <v>2018</v>
@@ -6357,24 +6357,24 @@
         <v>13</v>
       </c>
       <c r="E120" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>609</v>
-      </c>
       <c r="K120" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C121" s="1">
         <v>2019</v>
@@ -6386,120 +6386,120 @@
         <v>122</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C122" s="1">
         <v>2018</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>235</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C123" s="1">
         <v>2018</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="G123" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>225</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="221" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C124" s="1">
         <v>2019</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C125" s="1">
         <v>2017</v>
@@ -6511,21 +6511,21 @@
         <v>128</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C126" s="1">
         <v>2019</v>
@@ -6534,30 +6534,30 @@
         <v>104</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="170" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C127" s="1">
         <v>2017</v>
@@ -6569,21 +6569,21 @@
         <v>63</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C128" s="1">
         <v>2019</v>
@@ -6592,24 +6592,24 @@
         <v>13</v>
       </c>
       <c r="E128" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="K128" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="C129" s="1">
         <v>2018</v>
@@ -6621,21 +6621,21 @@
         <v>95</v>
       </c>
       <c r="F129" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="K129" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C130" s="1">
         <v>2018</v>
@@ -6644,27 +6644,27 @@
         <v>104</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F130" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C131" s="1">
         <v>2013</v>
@@ -6676,50 +6676,50 @@
         <v>63</v>
       </c>
       <c r="F131" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C132" s="1">
         <v>2018</v>
       </c>
       <c r="D132" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="K132" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C133" s="1">
         <v>2019</v>
@@ -6728,30 +6728,30 @@
         <v>104</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C134" s="1">
         <v>2017</v>
@@ -6763,47 +6763,47 @@
         <v>63</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="K134" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C135" s="1">
         <v>2019</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F135" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>671</v>
-      </c>
       <c r="K135" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C136" s="1">
         <v>2017</v>
@@ -6812,27 +6812,27 @@
         <v>13</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="I136" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="I136" s="1" t="s">
-        <v>676</v>
-      </c>
       <c r="K136" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C137" s="1">
         <v>2018</v>
@@ -6841,7 +6841,7 @@
         <v>104</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>105</v>
@@ -6853,18 +6853,18 @@
         <v>107</v>
       </c>
       <c r="I137" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="C138" s="1">
         <v>2019</v>
@@ -6876,10 +6876,10 @@
         <v>63</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>58</v>
@@ -6888,44 +6888,44 @@
         <v>135</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C139" s="1">
         <v>2020</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E139" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C140" s="1">
         <v>2017</v>
@@ -6937,27 +6937,27 @@
         <v>63</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="C141" s="1">
         <v>2018</v>
@@ -6966,19 +6966,19 @@
         <v>104</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kharrigian/Dev/research/johns-hopkins/dredze/mental-health-datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6640984D-7B46-0543-A379-A9B58A588E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F0E83B-A3F1-C74E-8A3F-D3591A0D78C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7500" windowWidth="22200" windowHeight="14900" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{12AC74CC-1E53-1243-8351-D86244D05D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="823">
   <si>
     <t>Paper</t>
   </si>
@@ -2907,9 +2907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E2654E-11BF-434E-B104-18FED2D9E566}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4125,7 +4125,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>246</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>270</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>289</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>324</v>
       </c>
@@ -6328,12 +6328,15 @@
         <v>104</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I119" s="1" t="s">
